--- a/Compass.Wpf/JobCardEn.xlsx
+++ b/Compass.Wpf/JobCardEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F6298-049B-409C-8023-A7B3899D74A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D371558-7421-4224-8EEA-8CC00721DC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobCard" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-10409]yyyy/m/d"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +737,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1681,158 +1688,149 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1847,137 +1845,146 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2522,8 +2529,8 @@
   </sheetPr>
   <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A220" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147:E147"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2542,94 +2549,94 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="89"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="90"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="122"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="92" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="90"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="122"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="106"/>
+      <c r="C6" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="91"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="123"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="106"/>
+      <c r="C7" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
@@ -2658,24 +2665,24 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="101"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="96"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="G9" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="103"/>
+      <c r="H9" s="118"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -2687,50 +2694,50 @@
       <c r="C10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="96"/>
+      <c r="D10" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="100"/>
       <c r="F10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="105"/>
+      <c r="H10" s="120"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="96"/>
+      <c r="D11" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="100"/>
       <c r="F11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="113">
         <v>43826</v>
       </c>
-      <c r="H11" s="98"/>
+      <c r="H11" s="114"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="96"/>
+      <c r="D12" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="100"/>
       <c r="F12" s="24" t="s">
         <v>10</v>
       </c>
@@ -2751,10 +2758,10 @@
       <c r="C13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="96"/>
+      <c r="D13" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="100"/>
       <c r="F13" s="24" t="s">
         <v>10</v>
       </c>
@@ -2773,10 +2780,10 @@
       <c r="C14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="96"/>
+      <c r="D14" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="100"/>
       <c r="F14" s="24" t="s">
         <v>10</v>
       </c>
@@ -2795,10 +2802,10 @@
       <c r="C15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="96"/>
+      <c r="D15" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="100"/>
       <c r="F15" s="24" t="s">
         <v>10</v>
       </c>
@@ -2834,10 +2841,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="86"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="46" t="s">
         <v>25</v>
       </c>
@@ -2886,272 +2893,272 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="112"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="109"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="112"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="109"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="116"/>
+      <c r="B21" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="154"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="114"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="156"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="156"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="156"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="156"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="118"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="156"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="156"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="118"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="156"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="118"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="156"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="118"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="156"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="118"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="156"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="156"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="118"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="156"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="118"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="156"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="118"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="156"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="118"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="156"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="118"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="156"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="118"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="156"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="118"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="156"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="118"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="156"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="55"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="120"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="158"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="96"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="106" t="s">
+      <c r="D43" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
       <c r="G43" s="41" t="s">
         <v>36</v>
       </c>
@@ -3160,198 +3167,198 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="96"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="107"/>
-      <c r="F44" s="108"/>
+      <c r="D44" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="102"/>
+      <c r="F44" s="103"/>
       <c r="G44" s="42"/>
       <c r="H44" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="96"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="107"/>
-      <c r="F45" s="108"/>
+      <c r="D45" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="102"/>
+      <c r="F45" s="103"/>
       <c r="G45" s="42"/>
       <c r="H45" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="96"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="107"/>
-      <c r="F46" s="108"/>
+      <c r="D46" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="102"/>
+      <c r="F46" s="103"/>
       <c r="G46" s="42"/>
       <c r="H46" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="96"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="107"/>
-      <c r="F47" s="108"/>
+      <c r="D47" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="102"/>
+      <c r="F47" s="103"/>
       <c r="G47" s="42"/>
       <c r="H47" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="96"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="107"/>
-      <c r="F48" s="108"/>
+      <c r="D48" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="102"/>
+      <c r="F48" s="103"/>
       <c r="G48" s="42"/>
       <c r="H48" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="96"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="107"/>
-      <c r="F49" s="108"/>
+      <c r="D49" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="102"/>
+      <c r="F49" s="103"/>
       <c r="G49" s="42"/>
       <c r="H49" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="85" t="s">
+      <c r="A50" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="96"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="107"/>
-      <c r="F50" s="108"/>
+      <c r="D50" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="102"/>
+      <c r="F50" s="103"/>
       <c r="G50" s="42"/>
       <c r="H50" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="96"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="107"/>
-      <c r="F51" s="108"/>
+      <c r="D51" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="102"/>
+      <c r="F51" s="103"/>
       <c r="G51" s="42"/>
       <c r="H51" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="85" t="s">
+      <c r="A52" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="96"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="107"/>
-      <c r="F52" s="108"/>
+      <c r="D52" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="102"/>
+      <c r="F52" s="103"/>
       <c r="G52" s="42"/>
       <c r="H52" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="96"/>
+      <c r="B53" s="100"/>
       <c r="C53" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="107"/>
-      <c r="F53" s="108"/>
+      <c r="D53" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="102"/>
+      <c r="F53" s="103"/>
       <c r="G53" s="42"/>
       <c r="H53" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="96"/>
+      <c r="B54" s="100"/>
       <c r="C54" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="107"/>
-      <c r="F54" s="108"/>
+      <c r="D54" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="102"/>
+      <c r="F54" s="103"/>
       <c r="G54" s="42"/>
       <c r="H54" s="32" t="s">
         <v>10</v>
@@ -3370,91 +3377,91 @@
     <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="121" t="s">
+      <c r="A58" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="122"/>
-      <c r="C58" s="131" t="str">
+      <c r="B58" s="74"/>
+      <c r="C58" s="82" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="128"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="79"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="121" t="s">
+      <c r="A59" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="122"/>
-      <c r="C59" s="133" t="str">
+      <c r="B59" s="74"/>
+      <c r="C59" s="90" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="129"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="80"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="121" t="s">
+      <c r="A60" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="122"/>
-      <c r="C60" s="133" t="str">
+      <c r="B60" s="74"/>
+      <c r="C60" s="90" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="129"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="80"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="123" t="s">
+      <c r="A61" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="124"/>
-      <c r="C61" s="135" t="str">
+      <c r="B61" s="98"/>
+      <c r="C61" s="93" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D61" s="136"/>
-      <c r="E61" s="136"/>
-      <c r="F61" s="136"/>
-      <c r="G61" s="136"/>
-      <c r="H61" s="130"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="81"/>
     </row>
     <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="125"/>
-      <c r="B62" s="125"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
       <c r="F62" s="45" t="s">
         <v>50</v>
       </c>
@@ -3466,25 +3473,25 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="126" t="s">
+      <c r="A63" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="126"/>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="127" t="s">
+      <c r="A64" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="127"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
       <c r="F64" s="34" t="s">
         <v>10</v>
       </c>
@@ -3494,13 +3501,13 @@
       <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="127" t="s">
+      <c r="A65" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="127"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
       <c r="F65" s="34" t="s">
         <v>10</v>
       </c>
@@ -3510,13 +3517,13 @@
       <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="127" t="s">
+      <c r="A66" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="127"/>
-      <c r="C66" s="127"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
       <c r="F66" s="34" t="s">
         <v>10</v>
       </c>
@@ -3526,13 +3533,13 @@
       <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="127" t="s">
+      <c r="A67" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="127"/>
-      <c r="C67" s="127"/>
-      <c r="D67" s="127"/>
-      <c r="E67" s="127"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
       <c r="F67" s="34" t="s">
         <v>10</v>
       </c>
@@ -3542,13 +3549,13 @@
       <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="127" t="s">
+      <c r="A68" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="127"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
       <c r="F68" s="34" t="s">
         <v>10</v>
       </c>
@@ -3558,13 +3565,13 @@
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="126" t="s">
+      <c r="A69" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="126"/>
-      <c r="C69" s="126"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="126"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33" t="s">
         <v>10</v>
@@ -3572,13 +3579,13 @@
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="127" t="s">
+      <c r="A70" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="127"/>
-      <c r="C70" s="127"/>
-      <c r="D70" s="127"/>
-      <c r="E70" s="127"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
       <c r="F70" s="34" t="s">
         <v>10</v>
       </c>
@@ -3588,13 +3595,13 @@
       <c r="H70" s="34"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="127" t="s">
+      <c r="A71" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="127"/>
-      <c r="C71" s="127"/>
-      <c r="D71" s="127"/>
-      <c r="E71" s="127"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
       <c r="F71" s="34" t="s">
         <v>10</v>
       </c>
@@ -3604,13 +3611,13 @@
       <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="127" t="s">
+      <c r="A72" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="127"/>
-      <c r="C72" s="127"/>
-      <c r="D72" s="127"/>
-      <c r="E72" s="127"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
       <c r="F72" s="34" t="s">
         <v>10</v>
       </c>
@@ -3620,13 +3627,13 @@
       <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="127" t="s">
+      <c r="A73" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="127"/>
-      <c r="C73" s="127"/>
-      <c r="D73" s="127"/>
-      <c r="E73" s="127"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
       <c r="F73" s="34" t="s">
         <v>10</v>
       </c>
@@ -3636,13 +3643,13 @@
       <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="127" t="s">
+      <c r="A74" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="127"/>
-      <c r="C74" s="127"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
       <c r="F74" s="34" t="s">
         <v>10</v>
       </c>
@@ -3652,13 +3659,13 @@
       <c r="H74" s="34"/>
     </row>
     <row r="75" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="127" t="s">
+      <c r="A75" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="127"/>
-      <c r="C75" s="127"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="127"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
       <c r="F75" s="34" t="s">
         <v>10</v>
       </c>
@@ -3668,13 +3675,13 @@
       <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="126" t="s">
+      <c r="A76" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="126"/>
-      <c r="C76" s="126"/>
-      <c r="D76" s="126"/>
-      <c r="E76" s="126"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="96"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33" t="s">
         <v>10</v>
@@ -3682,13 +3689,13 @@
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="127" t="s">
+      <c r="A77" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="127"/>
-      <c r="C77" s="127"/>
-      <c r="D77" s="127"/>
-      <c r="E77" s="127"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
       <c r="F77" s="34" t="s">
         <v>10</v>
       </c>
@@ -3698,13 +3705,13 @@
       <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="127" t="s">
+      <c r="A78" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="127"/>
-      <c r="C78" s="127"/>
-      <c r="D78" s="127"/>
-      <c r="E78" s="127"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
       <c r="F78" s="34" t="s">
         <v>10</v>
       </c>
@@ -3714,13 +3721,13 @@
       <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="127" t="s">
+      <c r="A79" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B79" s="127"/>
-      <c r="C79" s="127"/>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
       <c r="F79" s="34" t="s">
         <v>10</v>
       </c>
@@ -3730,13 +3737,13 @@
       <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="127" t="s">
+      <c r="A80" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B80" s="127"/>
-      <c r="C80" s="127"/>
-      <c r="D80" s="127"/>
-      <c r="E80" s="127"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="85"/>
       <c r="F80" s="34" t="s">
         <v>10</v>
       </c>
@@ -3746,13 +3753,13 @@
       <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="126" t="s">
+      <c r="A81" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="126"/>
-      <c r="C81" s="126"/>
-      <c r="D81" s="126"/>
-      <c r="E81" s="126"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33" t="s">
         <v>10</v>
@@ -3760,13 +3767,13 @@
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="127" t="s">
+      <c r="A82" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="127"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
       <c r="F82" s="34" t="s">
         <v>10</v>
       </c>
@@ -3776,13 +3783,13 @@
       <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="127" t="s">
+      <c r="A83" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="127"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
       <c r="F83" s="34" t="s">
         <v>10</v>
       </c>
@@ -3792,13 +3799,13 @@
       <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="127" t="s">
+      <c r="A84" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
       <c r="F84" s="34" t="s">
         <v>10</v>
       </c>
@@ -3808,13 +3815,13 @@
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="127" t="s">
+      <c r="A85" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
       <c r="F85" s="34" t="s">
         <v>10</v>
       </c>
@@ -3824,13 +3831,13 @@
       <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="127" t="s">
+      <c r="A86" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="127"/>
-      <c r="C86" s="127"/>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
       <c r="F86" s="34" t="s">
         <v>10</v>
       </c>
@@ -3840,13 +3847,13 @@
       <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="127" t="s">
+      <c r="A87" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="127"/>
-      <c r="C87" s="127"/>
-      <c r="D87" s="127"/>
-      <c r="E87" s="127"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
       <c r="F87" s="34" t="s">
         <v>10</v>
       </c>
@@ -3856,13 +3863,13 @@
       <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="127" t="s">
+      <c r="A88" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="127"/>
-      <c r="C88" s="127"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
       <c r="F88" s="34" t="s">
         <v>10</v>
       </c>
@@ -3872,13 +3879,13 @@
       <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="127" t="s">
+      <c r="A89" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="127"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
       <c r="F89" s="34" t="s">
         <v>10</v>
       </c>
@@ -3888,13 +3895,13 @@
       <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="127" t="s">
+      <c r="A90" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="127"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
       <c r="F90" s="34" t="s">
         <v>10</v>
       </c>
@@ -3904,13 +3911,13 @@
       <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="127" t="s">
+      <c r="A91" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="127"/>
-      <c r="C91" s="127"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="127"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
       <c r="F91" s="34" t="s">
         <v>10</v>
       </c>
@@ -3920,13 +3927,13 @@
       <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="127" t="s">
+      <c r="A92" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="127"/>
-      <c r="C92" s="127"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="127"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
       <c r="F92" s="34" t="s">
         <v>10</v>
       </c>
@@ -3936,13 +3943,13 @@
       <c r="H92" s="34"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="127" t="s">
+      <c r="A93" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B93" s="127"/>
-      <c r="C93" s="127"/>
-      <c r="D93" s="127"/>
-      <c r="E93" s="127"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
       <c r="F93" s="34" t="s">
         <v>10</v>
       </c>
@@ -3964,91 +3971,91 @@
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
-      <c r="C95" s="87" t="s">
+      <c r="C95" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="D95" s="87"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="87"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="88"/>
-      <c r="G96" s="88"/>
-      <c r="H96" s="88"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="89"/>
     </row>
     <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="121" t="s">
+      <c r="A97" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="122"/>
-      <c r="C97" s="131" t="str">
+      <c r="B97" s="74"/>
+      <c r="C97" s="82" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D97" s="132"/>
-      <c r="E97" s="132"/>
-      <c r="F97" s="132"/>
-      <c r="G97" s="137"/>
-      <c r="H97" s="128"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="79"/>
     </row>
     <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="121" t="s">
+      <c r="A98" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="122"/>
-      <c r="C98" s="133" t="str">
+      <c r="B98" s="74"/>
+      <c r="C98" s="90" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D98" s="134"/>
-      <c r="E98" s="134"/>
-      <c r="F98" s="134"/>
-      <c r="G98" s="138"/>
-      <c r="H98" s="129"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="80"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="121" t="s">
+      <c r="A99" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="122"/>
-      <c r="C99" s="133" t="str">
+      <c r="B99" s="74"/>
+      <c r="C99" s="90" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D99" s="134"/>
-      <c r="E99" s="134"/>
-      <c r="F99" s="134"/>
-      <c r="G99" s="138"/>
-      <c r="H99" s="129"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="80"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="123" t="s">
+      <c r="A100" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="124"/>
-      <c r="C100" s="135" t="str">
+      <c r="B100" s="98"/>
+      <c r="C100" s="93" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D100" s="136"/>
-      <c r="E100" s="136"/>
-      <c r="F100" s="136"/>
-      <c r="G100" s="139"/>
-      <c r="H100" s="130"/>
+      <c r="D100" s="94"/>
+      <c r="E100" s="94"/>
+      <c r="F100" s="94"/>
+      <c r="G100" s="95"/>
+      <c r="H100" s="81"/>
     </row>
     <row r="101" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A101" s="125"/>
-      <c r="B101" s="125"/>
-      <c r="C101" s="125"/>
-      <c r="D101" s="125"/>
-      <c r="E101" s="125"/>
+      <c r="A101" s="78"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
       <c r="F101" s="45" t="s">
         <v>50</v>
       </c>
@@ -4060,13 +4067,13 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="126" t="s">
+      <c r="A102" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="B102" s="126"/>
-      <c r="C102" s="126"/>
-      <c r="D102" s="126"/>
-      <c r="E102" s="126"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
       <c r="F102" s="33"/>
       <c r="G102" s="33" t="s">
         <v>10</v>
@@ -4074,13 +4081,13 @@
       <c r="H102" s="33"/>
     </row>
     <row r="103" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="127" t="s">
+      <c r="A103" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B103" s="127"/>
-      <c r="C103" s="127"/>
-      <c r="D103" s="127"/>
-      <c r="E103" s="127"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
       <c r="F103" s="34" t="s">
         <v>10</v>
       </c>
@@ -4090,13 +4097,13 @@
       <c r="H103" s="34"/>
     </row>
     <row r="104" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="127" t="s">
+      <c r="A104" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B104" s="127"/>
-      <c r="C104" s="127"/>
-      <c r="D104" s="127"/>
-      <c r="E104" s="127"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
       <c r="F104" s="34" t="s">
         <v>10</v>
       </c>
@@ -4106,13 +4113,13 @@
       <c r="H104" s="34"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="127" t="s">
+      <c r="A105" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B105" s="127"/>
-      <c r="C105" s="127"/>
-      <c r="D105" s="127"/>
-      <c r="E105" s="127"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
       <c r="F105" s="34" t="s">
         <v>10</v>
       </c>
@@ -4122,13 +4129,13 @@
       <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="126" t="s">
+      <c r="A106" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B106" s="126"/>
-      <c r="C106" s="126"/>
-      <c r="D106" s="126"/>
-      <c r="E106" s="126"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33" t="s">
         <v>10</v>
@@ -4136,13 +4143,13 @@
       <c r="H106" s="33"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="127" t="s">
+      <c r="A107" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B107" s="127"/>
-      <c r="C107" s="127"/>
-      <c r="D107" s="127"/>
-      <c r="E107" s="127"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
       <c r="F107" s="34" t="s">
         <v>10</v>
       </c>
@@ -4152,13 +4159,13 @@
       <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="127" t="s">
+      <c r="A108" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B108" s="127"/>
-      <c r="C108" s="127"/>
-      <c r="D108" s="127"/>
-      <c r="E108" s="127"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
       <c r="F108" s="34" t="s">
         <v>10</v>
       </c>
@@ -4168,13 +4175,13 @@
       <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="127" t="s">
+      <c r="A109" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="127"/>
-      <c r="C109" s="127"/>
-      <c r="D109" s="127"/>
-      <c r="E109" s="127"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="85"/>
       <c r="F109" s="34" t="s">
         <v>10</v>
       </c>
@@ -4184,13 +4191,13 @@
       <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="127" t="s">
+      <c r="A110" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="127"/>
-      <c r="C110" s="127"/>
-      <c r="D110" s="127"/>
-      <c r="E110" s="127"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
       <c r="F110" s="34" t="s">
         <v>10</v>
       </c>
@@ -4200,13 +4207,13 @@
       <c r="H110" s="34"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="127" t="s">
+      <c r="A111" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B111" s="127"/>
-      <c r="C111" s="127"/>
-      <c r="D111" s="127"/>
-      <c r="E111" s="127"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
       <c r="F111" s="34" t="s">
         <v>10</v>
       </c>
@@ -4216,13 +4223,13 @@
       <c r="H111" s="34"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="127" t="s">
+      <c r="A112" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B112" s="127"/>
-      <c r="C112" s="127"/>
-      <c r="D112" s="127"/>
-      <c r="E112" s="127"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
       <c r="F112" s="34" t="s">
         <v>10</v>
       </c>
@@ -4232,13 +4239,13 @@
       <c r="H112" s="34"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="127" t="s">
+      <c r="A113" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="B113" s="127"/>
-      <c r="C113" s="127"/>
-      <c r="D113" s="127"/>
-      <c r="E113" s="127"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
       <c r="F113" s="34" t="s">
         <v>10</v>
       </c>
@@ -4248,13 +4255,13 @@
       <c r="H113" s="34"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="127" t="s">
+      <c r="A114" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="B114" s="127"/>
-      <c r="C114" s="127"/>
-      <c r="D114" s="127"/>
-      <c r="E114" s="127"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
       <c r="F114" s="34" t="s">
         <v>10</v>
       </c>
@@ -4264,13 +4271,13 @@
       <c r="H114" s="34"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="127" t="s">
+      <c r="A115" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="B115" s="127"/>
-      <c r="C115" s="127"/>
-      <c r="D115" s="127"/>
-      <c r="E115" s="127"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
       <c r="F115" s="34" t="s">
         <v>10</v>
       </c>
@@ -4280,13 +4287,13 @@
       <c r="H115" s="34"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="127" t="s">
+      <c r="A116" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="127"/>
-      <c r="C116" s="127"/>
-      <c r="D116" s="127"/>
-      <c r="E116" s="127"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
       <c r="F116" s="34" t="s">
         <v>10</v>
       </c>
@@ -4296,13 +4303,13 @@
       <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="127" t="s">
+      <c r="A117" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B117" s="127"/>
-      <c r="C117" s="127"/>
-      <c r="D117" s="127"/>
-      <c r="E117" s="127"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
       <c r="F117" s="34" t="s">
         <v>10</v>
       </c>
@@ -4312,13 +4319,13 @@
       <c r="H117" s="34"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="127" t="s">
+      <c r="A118" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B118" s="127"/>
-      <c r="C118" s="127"/>
-      <c r="D118" s="127"/>
-      <c r="E118" s="127"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
       <c r="F118" s="34" t="s">
         <v>10</v>
       </c>
@@ -4328,13 +4335,13 @@
       <c r="H118" s="34"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="127" t="s">
+      <c r="A119" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B119" s="127"/>
-      <c r="C119" s="127"/>
-      <c r="D119" s="127"/>
-      <c r="E119" s="127"/>
+      <c r="B119" s="85"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="85"/>
       <c r="F119" s="34" t="s">
         <v>10</v>
       </c>
@@ -4344,13 +4351,13 @@
       <c r="H119" s="34"/>
     </row>
     <row r="120" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="127" t="s">
+      <c r="A120" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="B120" s="127"/>
-      <c r="C120" s="127"/>
-      <c r="D120" s="127"/>
-      <c r="E120" s="127"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="85"/>
       <c r="F120" s="34" t="s">
         <v>10</v>
       </c>
@@ -4360,13 +4367,13 @@
       <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="127" t="s">
+      <c r="A121" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B121" s="127"/>
-      <c r="C121" s="127"/>
-      <c r="D121" s="127"/>
-      <c r="E121" s="127"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
       <c r="F121" s="34" t="s">
         <v>10</v>
       </c>
@@ -4376,13 +4383,13 @@
       <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="127" t="s">
+      <c r="A122" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="127"/>
-      <c r="C122" s="127"/>
-      <c r="D122" s="127"/>
-      <c r="E122" s="127"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
       <c r="F122" s="34" t="s">
         <v>10</v>
       </c>
@@ -4392,13 +4399,13 @@
       <c r="H122" s="34"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="127" t="s">
+      <c r="A123" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="B123" s="127"/>
-      <c r="C123" s="127"/>
-      <c r="D123" s="127"/>
-      <c r="E123" s="127"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
       <c r="F123" s="34" t="s">
         <v>10</v>
       </c>
@@ -4408,13 +4415,13 @@
       <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="127" t="s">
+      <c r="A124" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="B124" s="127"/>
-      <c r="C124" s="127"/>
-      <c r="D124" s="127"/>
-      <c r="E124" s="127"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
       <c r="F124" s="34" t="s">
         <v>10</v>
       </c>
@@ -4424,13 +4431,13 @@
       <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="127" t="s">
+      <c r="A125" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="127"/>
-      <c r="C125" s="127"/>
-      <c r="D125" s="127"/>
-      <c r="E125" s="127"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
       <c r="F125" s="34" t="s">
         <v>10</v>
       </c>
@@ -4440,13 +4447,13 @@
       <c r="H125" s="34"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="127" t="s">
+      <c r="A126" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="B126" s="127"/>
-      <c r="C126" s="127"/>
-      <c r="D126" s="127"/>
-      <c r="E126" s="127"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="85"/>
+      <c r="D126" s="85"/>
+      <c r="E126" s="85"/>
       <c r="F126" s="34" t="s">
         <v>10</v>
       </c>
@@ -4456,13 +4463,13 @@
       <c r="H126" s="34"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="127" t="s">
+      <c r="A127" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="B127" s="127"/>
-      <c r="C127" s="127"/>
-      <c r="D127" s="127"/>
-      <c r="E127" s="127"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
       <c r="F127" s="34" t="s">
         <v>10</v>
       </c>
@@ -4472,13 +4479,13 @@
       <c r="H127" s="34"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="127" t="s">
+      <c r="A128" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="B128" s="127"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="127"/>
-      <c r="E128" s="127"/>
+      <c r="B128" s="85"/>
+      <c r="C128" s="85"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
       <c r="F128" s="34" t="s">
         <v>10</v>
       </c>
@@ -4488,13 +4495,13 @@
       <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="127" t="s">
+      <c r="A129" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="B129" s="127"/>
-      <c r="C129" s="127"/>
-      <c r="D129" s="127"/>
-      <c r="E129" s="127"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
       <c r="F129" s="34" t="s">
         <v>10</v>
       </c>
@@ -4504,13 +4511,13 @@
       <c r="H129" s="34"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="127" t="s">
+      <c r="A130" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="B130" s="127"/>
-      <c r="C130" s="127"/>
-      <c r="D130" s="127"/>
-      <c r="E130" s="127"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="85"/>
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
       <c r="F130" s="34" t="s">
         <v>10</v>
       </c>
@@ -4520,13 +4527,13 @@
       <c r="H130" s="34"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="127" t="s">
+      <c r="A131" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B131" s="127"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="127"/>
-      <c r="E131" s="127"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="85"/>
       <c r="F131" s="34" t="s">
         <v>10</v>
       </c>
@@ -4536,13 +4543,13 @@
       <c r="H131" s="34"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="127" t="s">
+      <c r="A132" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B132" s="127"/>
-      <c r="C132" s="127"/>
-      <c r="D132" s="127"/>
-      <c r="E132" s="127"/>
+      <c r="B132" s="85"/>
+      <c r="C132" s="85"/>
+      <c r="D132" s="85"/>
+      <c r="E132" s="85"/>
       <c r="F132" s="34" t="s">
         <v>10</v>
       </c>
@@ -4552,13 +4559,13 @@
       <c r="H132" s="34"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="127" t="s">
+      <c r="A133" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="B133" s="127"/>
-      <c r="C133" s="127"/>
-      <c r="D133" s="127"/>
-      <c r="E133" s="127"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="85"/>
+      <c r="E133" s="85"/>
       <c r="F133" s="34" t="s">
         <v>10</v>
       </c>
@@ -4568,13 +4575,13 @@
       <c r="H133" s="34"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="127" t="s">
+      <c r="A134" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="B134" s="127"/>
-      <c r="C134" s="127"/>
-      <c r="D134" s="127"/>
-      <c r="E134" s="127"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="85"/>
+      <c r="D134" s="85"/>
+      <c r="E134" s="85"/>
       <c r="F134" s="34" t="s">
         <v>10</v>
       </c>
@@ -4584,16 +4591,16 @@
       <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="140" t="s">
+      <c r="A135" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="B135" s="140"/>
-      <c r="C135" s="141"/>
-      <c r="D135" s="141"/>
-      <c r="E135" s="141"/>
-      <c r="F135" s="141"/>
-      <c r="G135" s="141"/>
-      <c r="H135" s="141"/>
+      <c r="B135" s="86"/>
+      <c r="C135" s="87"/>
+      <c r="D135" s="87"/>
+      <c r="E135" s="87"/>
+      <c r="F135" s="87"/>
+      <c r="G135" s="87"/>
+      <c r="H135" s="87"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="50"/>
@@ -4608,634 +4615,634 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
-      <c r="C137" s="87" t="s">
+      <c r="C137" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="D137" s="87"/>
-      <c r="E137" s="87"/>
-      <c r="F137" s="87"/>
-      <c r="G137" s="87"/>
-      <c r="H137" s="87"/>
+      <c r="D137" s="88"/>
+      <c r="E137" s="88"/>
+      <c r="F137" s="88"/>
+      <c r="G137" s="88"/>
+      <c r="H137" s="88"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
-      <c r="C138" s="88"/>
-      <c r="D138" s="88"/>
-      <c r="E138" s="88"/>
-      <c r="F138" s="88"/>
-      <c r="G138" s="88"/>
-      <c r="H138" s="88"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="89"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="89"/>
+      <c r="G138" s="89"/>
+      <c r="H138" s="89"/>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="121" t="s">
+      <c r="A139" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="B139" s="122"/>
-      <c r="C139" s="131" t="str">
+      <c r="B139" s="74"/>
+      <c r="C139" s="82" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D139" s="132"/>
-      <c r="E139" s="132"/>
-      <c r="F139" s="132"/>
-      <c r="G139" s="137"/>
-      <c r="H139" s="128"/>
+      <c r="D139" s="83"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="84"/>
+      <c r="H139" s="79"/>
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="121" t="s">
+      <c r="A140" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="B140" s="122"/>
-      <c r="C140" s="131" t="str">
+      <c r="B140" s="74"/>
+      <c r="C140" s="82" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D140" s="132"/>
-      <c r="E140" s="132"/>
-      <c r="F140" s="132"/>
-      <c r="G140" s="137"/>
-      <c r="H140" s="129"/>
+      <c r="D140" s="83"/>
+      <c r="E140" s="83"/>
+      <c r="F140" s="83"/>
+      <c r="G140" s="84"/>
+      <c r="H140" s="80"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="121" t="s">
+      <c r="A141" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B141" s="122"/>
-      <c r="C141" s="131" t="str">
+      <c r="B141" s="74"/>
+      <c r="C141" s="82" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D141" s="132"/>
-      <c r="E141" s="132"/>
-      <c r="F141" s="132"/>
-      <c r="G141" s="137"/>
-      <c r="H141" s="129"/>
+      <c r="D141" s="83"/>
+      <c r="E141" s="83"/>
+      <c r="F141" s="83"/>
+      <c r="G141" s="84"/>
+      <c r="H141" s="80"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="121" t="s">
+      <c r="A142" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="B142" s="122"/>
-      <c r="C142" s="131" t="str">
+      <c r="B142" s="74"/>
+      <c r="C142" s="82" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D142" s="132"/>
-      <c r="E142" s="132"/>
-      <c r="F142" s="132"/>
-      <c r="G142" s="137"/>
-      <c r="H142" s="130"/>
+      <c r="D142" s="83"/>
+      <c r="E142" s="83"/>
+      <c r="F142" s="83"/>
+      <c r="G142" s="84"/>
+      <c r="H142" s="81"/>
     </row>
     <row r="143" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="150" t="s">
+      <c r="A143" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="B143" s="151"/>
-      <c r="C143" s="150" t="s">
+      <c r="B143" s="76"/>
+      <c r="C143" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="D143" s="152"/>
-      <c r="E143" s="152"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
       <c r="F143" s="35"/>
-      <c r="G143" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="H143" s="125"/>
+      <c r="G143" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="78"/>
     </row>
     <row r="144" spans="1:8" s="37" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="142" t="s">
+      <c r="A144" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B144" s="143"/>
-      <c r="C144" s="143"/>
-      <c r="D144" s="143"/>
-      <c r="E144" s="144"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="71"/>
       <c r="F144" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="G144" s="145" t="s">
+      <c r="G144" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="H144" s="145"/>
+      <c r="H144" s="72"/>
     </row>
     <row r="145" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="146" t="s">
+      <c r="A145" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="B145" s="147"/>
-      <c r="C145" s="147"/>
-      <c r="D145" s="147"/>
-      <c r="E145" s="148"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="61"/>
       <c r="F145" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G145" s="149" t="s">
+      <c r="G145" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H145" s="149"/>
+      <c r="H145" s="62"/>
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="146" t="s">
+      <c r="A146" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B146" s="147"/>
-      <c r="C146" s="147"/>
-      <c r="D146" s="147"/>
-      <c r="E146" s="148"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="61"/>
       <c r="F146" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G146" s="149" t="s">
+      <c r="G146" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H146" s="149"/>
+      <c r="H146" s="62"/>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="146" t="s">
+      <c r="A147" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="B147" s="147"/>
-      <c r="C147" s="147"/>
-      <c r="D147" s="147"/>
-      <c r="E147" s="148"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="61"/>
       <c r="F147" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G147" s="149" t="s">
+      <c r="G147" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H147" s="149"/>
+      <c r="H147" s="62"/>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="146" t="s">
+      <c r="A148" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="B148" s="147"/>
-      <c r="C148" s="147"/>
-      <c r="D148" s="147"/>
-      <c r="E148" s="148"/>
+      <c r="B148" s="60"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="61"/>
       <c r="F148" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G148" s="149" t="s">
+      <c r="G148" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H148" s="149"/>
+      <c r="H148" s="62"/>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="146" t="s">
+      <c r="A149" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B149" s="147"/>
-      <c r="C149" s="147"/>
-      <c r="D149" s="147"/>
-      <c r="E149" s="148"/>
+      <c r="B149" s="60"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="61"/>
       <c r="F149" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G149" s="149" t="s">
+      <c r="G149" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H149" s="149"/>
+      <c r="H149" s="62"/>
     </row>
     <row r="150" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="146" t="s">
+      <c r="A150" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="B150" s="147"/>
-      <c r="C150" s="147"/>
-      <c r="D150" s="147"/>
-      <c r="E150" s="148"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="61"/>
       <c r="F150" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G150" s="149" t="s">
+      <c r="G150" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H150" s="149"/>
+      <c r="H150" s="62"/>
     </row>
     <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="146" t="s">
+      <c r="A151" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B151" s="147"/>
-      <c r="C151" s="147"/>
-      <c r="D151" s="147"/>
-      <c r="E151" s="148"/>
+      <c r="B151" s="60"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="61"/>
       <c r="F151" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G151" s="149" t="s">
+      <c r="G151" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H151" s="149"/>
+      <c r="H151" s="62"/>
     </row>
     <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="146" t="s">
+      <c r="A152" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="B152" s="147"/>
-      <c r="C152" s="147"/>
-      <c r="D152" s="147"/>
-      <c r="E152" s="148"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="60"/>
+      <c r="E152" s="61"/>
       <c r="F152" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G152" s="149" t="s">
+      <c r="G152" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H152" s="149"/>
+      <c r="H152" s="62"/>
     </row>
     <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="146" t="s">
+      <c r="A153" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B153" s="147"/>
-      <c r="C153" s="147"/>
-      <c r="D153" s="147"/>
-      <c r="E153" s="148"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="61"/>
       <c r="F153" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G153" s="149" t="s">
+      <c r="G153" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H153" s="149"/>
+      <c r="H153" s="62"/>
     </row>
     <row r="154" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="146" t="s">
+      <c r="A154" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="B154" s="147"/>
-      <c r="C154" s="147"/>
-      <c r="D154" s="147"/>
-      <c r="E154" s="148"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="61"/>
       <c r="F154" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G154" s="149" t="s">
+      <c r="G154" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H154" s="149"/>
+      <c r="H154" s="62"/>
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="146" t="s">
+      <c r="A155" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="147"/>
-      <c r="C155" s="147"/>
-      <c r="D155" s="147"/>
-      <c r="E155" s="148"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="61"/>
       <c r="F155" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G155" s="149" t="s">
+      <c r="G155" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H155" s="149"/>
+      <c r="H155" s="62"/>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="146" t="s">
+      <c r="A156" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="147"/>
-      <c r="C156" s="147"/>
-      <c r="D156" s="147"/>
-      <c r="E156" s="148"/>
+      <c r="B156" s="60"/>
+      <c r="C156" s="60"/>
+      <c r="D156" s="60"/>
+      <c r="E156" s="61"/>
       <c r="F156" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G156" s="149" t="s">
+      <c r="G156" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H156" s="149"/>
+      <c r="H156" s="62"/>
     </row>
     <row r="157" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="146" t="s">
+      <c r="A157" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B157" s="147"/>
-      <c r="C157" s="147"/>
-      <c r="D157" s="147"/>
-      <c r="E157" s="148"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="60"/>
+      <c r="D157" s="60"/>
+      <c r="E157" s="61"/>
       <c r="F157" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G157" s="149" t="s">
+      <c r="G157" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H157" s="149"/>
+      <c r="H157" s="62"/>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="146" t="s">
+      <c r="A158" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B158" s="147"/>
-      <c r="C158" s="147"/>
-      <c r="D158" s="147"/>
-      <c r="E158" s="148"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="60"/>
+      <c r="D158" s="60"/>
+      <c r="E158" s="61"/>
       <c r="F158" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G158" s="149" t="s">
+      <c r="G158" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H158" s="149"/>
+      <c r="H158" s="62"/>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="146" t="s">
+      <c r="A159" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="B159" s="147"/>
-      <c r="C159" s="147"/>
-      <c r="D159" s="147"/>
-      <c r="E159" s="148"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="60"/>
+      <c r="E159" s="61"/>
       <c r="F159" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G159" s="149" t="s">
+      <c r="G159" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H159" s="149"/>
+      <c r="H159" s="62"/>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="146" t="s">
+      <c r="A160" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B160" s="147"/>
-      <c r="C160" s="147"/>
-      <c r="D160" s="147"/>
-      <c r="E160" s="148"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="61"/>
       <c r="F160" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G160" s="149" t="s">
+      <c r="G160" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H160" s="149"/>
+      <c r="H160" s="62"/>
     </row>
     <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="146" t="s">
+      <c r="A161" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B161" s="147"/>
-      <c r="C161" s="147"/>
-      <c r="D161" s="147"/>
-      <c r="E161" s="148"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="60"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="61"/>
       <c r="F161" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G161" s="149" t="s">
+      <c r="G161" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H161" s="149"/>
+      <c r="H161" s="62"/>
     </row>
     <row r="162" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="146" t="s">
+      <c r="A162" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B162" s="147"/>
-      <c r="C162" s="147"/>
-      <c r="D162" s="147"/>
-      <c r="E162" s="148"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="60"/>
+      <c r="E162" s="61"/>
       <c r="F162" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G162" s="149" t="s">
+      <c r="G162" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H162" s="149"/>
+      <c r="H162" s="62"/>
     </row>
     <row r="163" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="146" t="s">
+      <c r="A163" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B163" s="147"/>
-      <c r="C163" s="147"/>
-      <c r="D163" s="147"/>
-      <c r="E163" s="148"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="60"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="61"/>
       <c r="F163" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G163" s="149" t="s">
+      <c r="G163" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H163" s="149"/>
+      <c r="H163" s="62"/>
     </row>
     <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="146" t="s">
+      <c r="A164" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B164" s="147"/>
-      <c r="C164" s="147"/>
-      <c r="D164" s="147"/>
-      <c r="E164" s="148"/>
+      <c r="B164" s="60"/>
+      <c r="C164" s="60"/>
+      <c r="D164" s="60"/>
+      <c r="E164" s="61"/>
       <c r="F164" s="25"/>
-      <c r="G164" s="149" t="s">
+      <c r="G164" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H164" s="149"/>
+      <c r="H164" s="62"/>
     </row>
     <row r="165" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="146" t="s">
+      <c r="A165" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B165" s="147"/>
-      <c r="C165" s="147"/>
-      <c r="D165" s="147"/>
-      <c r="E165" s="148"/>
+      <c r="B165" s="60"/>
+      <c r="C165" s="60"/>
+      <c r="D165" s="60"/>
+      <c r="E165" s="61"/>
       <c r="F165" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G165" s="149" t="s">
+      <c r="G165" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H165" s="149"/>
+      <c r="H165" s="62"/>
     </row>
     <row r="166" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="146" t="s">
+      <c r="A166" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B166" s="147"/>
-      <c r="C166" s="147"/>
-      <c r="D166" s="147"/>
-      <c r="E166" s="148"/>
+      <c r="B166" s="60"/>
+      <c r="C166" s="60"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="61"/>
       <c r="F166" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G166" s="149" t="s">
+      <c r="G166" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H166" s="149"/>
+      <c r="H166" s="62"/>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="146" t="s">
+      <c r="A167" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B167" s="147"/>
-      <c r="C167" s="147"/>
-      <c r="D167" s="147"/>
-      <c r="E167" s="148"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="60"/>
+      <c r="D167" s="60"/>
+      <c r="E167" s="61"/>
       <c r="F167" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G167" s="149" t="s">
+      <c r="G167" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H167" s="149"/>
+      <c r="H167" s="62"/>
     </row>
     <row r="168" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="146" t="s">
+      <c r="A168" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B168" s="147"/>
-      <c r="C168" s="147"/>
-      <c r="D168" s="147"/>
-      <c r="E168" s="148"/>
+      <c r="B168" s="60"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="60"/>
+      <c r="E168" s="61"/>
       <c r="F168" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G168" s="149" t="s">
+      <c r="G168" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H168" s="149"/>
+      <c r="H168" s="62"/>
     </row>
     <row r="169" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="146" t="s">
+      <c r="A169" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B169" s="147"/>
-      <c r="C169" s="147"/>
-      <c r="D169" s="147"/>
-      <c r="E169" s="148"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="60"/>
+      <c r="E169" s="61"/>
       <c r="F169" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G169" s="149" t="s">
+      <c r="G169" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H169" s="149"/>
+      <c r="H169" s="62"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="153" t="s">
+      <c r="A170" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B170" s="154"/>
-      <c r="C170" s="154"/>
-      <c r="D170" s="154"/>
-      <c r="E170" s="155"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="68"/>
       <c r="F170" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G170" s="149" t="s">
+      <c r="G170" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H170" s="149"/>
+      <c r="H170" s="62"/>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="146" t="s">
+      <c r="A171" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B171" s="147"/>
-      <c r="C171" s="147"/>
-      <c r="D171" s="147"/>
-      <c r="E171" s="148"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="60"/>
+      <c r="D171" s="60"/>
+      <c r="E171" s="61"/>
       <c r="F171" s="25"/>
-      <c r="G171" s="149" t="s">
+      <c r="G171" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H171" s="149"/>
+      <c r="H171" s="62"/>
     </row>
     <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="146" t="s">
+      <c r="A172" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B172" s="147"/>
-      <c r="C172" s="147"/>
-      <c r="D172" s="147"/>
-      <c r="E172" s="148"/>
+      <c r="B172" s="60"/>
+      <c r="C172" s="60"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="61"/>
       <c r="F172" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="G172" s="149" t="s">
+      <c r="G172" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H172" s="149"/>
+      <c r="H172" s="62"/>
     </row>
     <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="146" t="s">
+      <c r="A173" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B173" s="147"/>
-      <c r="C173" s="147"/>
-      <c r="D173" s="147"/>
-      <c r="E173" s="148"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="60"/>
+      <c r="D173" s="60"/>
+      <c r="E173" s="61"/>
       <c r="F173" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="G173" s="149" t="s">
+      <c r="G173" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H173" s="149"/>
+      <c r="H173" s="62"/>
     </row>
     <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="146" t="s">
+      <c r="A174" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B174" s="147"/>
-      <c r="C174" s="147"/>
-      <c r="D174" s="147"/>
-      <c r="E174" s="148"/>
+      <c r="B174" s="60"/>
+      <c r="C174" s="60"/>
+      <c r="D174" s="60"/>
+      <c r="E174" s="61"/>
       <c r="F174" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="G174" s="149" t="s">
+      <c r="G174" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H174" s="149"/>
+      <c r="H174" s="62"/>
     </row>
     <row r="175" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="146" t="s">
+      <c r="A175" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B175" s="147"/>
-      <c r="C175" s="147"/>
-      <c r="D175" s="147"/>
-      <c r="E175" s="148"/>
+      <c r="B175" s="60"/>
+      <c r="C175" s="60"/>
+      <c r="D175" s="60"/>
+      <c r="E175" s="61"/>
       <c r="F175" s="25"/>
-      <c r="G175" s="149" t="s">
+      <c r="G175" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H175" s="149"/>
+      <c r="H175" s="62"/>
     </row>
     <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="146" t="s">
+      <c r="A176" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B176" s="147"/>
-      <c r="C176" s="147"/>
-      <c r="D176" s="147"/>
-      <c r="E176" s="148"/>
+      <c r="B176" s="60"/>
+      <c r="C176" s="60"/>
+      <c r="D176" s="60"/>
+      <c r="E176" s="61"/>
       <c r="F176" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G176" s="149" t="s">
+      <c r="G176" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H176" s="149"/>
+      <c r="H176" s="62"/>
     </row>
     <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="156" t="s">
+      <c r="A177" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="B177" s="157"/>
-      <c r="C177" s="157"/>
-      <c r="D177" s="157"/>
-      <c r="E177" s="157"/>
-      <c r="F177" s="157"/>
-      <c r="G177" s="157"/>
-      <c r="H177" s="158"/>
+      <c r="B177" s="64"/>
+      <c r="C177" s="64"/>
+      <c r="D177" s="64"/>
+      <c r="E177" s="64"/>
+      <c r="F177" s="64"/>
+      <c r="G177" s="64"/>
+      <c r="H177" s="65"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="50"/>
@@ -5251,70 +5258,70 @@
       <c r="H180" s="57"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="69" t="s">
+      <c r="A181" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="B181" s="70"/>
-      <c r="C181" s="73" t="str">
+      <c r="B181" s="138"/>
+      <c r="C181" s="142" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D181" s="70"/>
-      <c r="E181" s="70"/>
-      <c r="F181" s="70"/>
-      <c r="G181" s="74"/>
-      <c r="H181" s="71"/>
+      <c r="D181" s="138"/>
+      <c r="E181" s="138"/>
+      <c r="F181" s="138"/>
+      <c r="G181" s="143"/>
+      <c r="H181" s="151"/>
     </row>
     <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="59" t="s">
+      <c r="A182" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="B182" s="60"/>
-      <c r="C182" s="75" t="str">
+      <c r="B182" s="128"/>
+      <c r="C182" s="144" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D182" s="76"/>
-      <c r="E182" s="76"/>
-      <c r="F182" s="76"/>
-      <c r="G182" s="77"/>
-      <c r="H182" s="71"/>
+      <c r="D182" s="145"/>
+      <c r="E182" s="145"/>
+      <c r="F182" s="145"/>
+      <c r="G182" s="146"/>
+      <c r="H182" s="151"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="59" t="s">
+      <c r="A183" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="B183" s="60"/>
-      <c r="C183" s="78" t="str">
+      <c r="B183" s="128"/>
+      <c r="C183" s="147" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D183" s="60"/>
-      <c r="E183" s="60"/>
-      <c r="F183" s="60"/>
-      <c r="G183" s="79"/>
-      <c r="H183" s="71"/>
+      <c r="D183" s="128"/>
+      <c r="E183" s="128"/>
+      <c r="F183" s="128"/>
+      <c r="G183" s="148"/>
+      <c r="H183" s="151"/>
     </row>
     <row r="184" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="61" t="s">
+      <c r="A184" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="B184" s="62"/>
-      <c r="C184" s="80" t="str">
+      <c r="B184" s="130"/>
+      <c r="C184" s="149" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D184" s="62"/>
-      <c r="E184" s="62"/>
-      <c r="F184" s="62"/>
-      <c r="G184" s="81"/>
-      <c r="H184" s="72"/>
+      <c r="D184" s="130"/>
+      <c r="E184" s="130"/>
+      <c r="F184" s="130"/>
+      <c r="G184" s="150"/>
+      <c r="H184" s="152"/>
     </row>
     <row r="185" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="63" t="s">
+      <c r="A185" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="B185" s="64"/>
+      <c r="B185" s="132"/>
       <c r="C185" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5338,14 +5345,14 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="65"/>
-      <c r="B186" s="66"/>
-      <c r="C186" s="66"/>
-      <c r="D186" s="67"/>
-      <c r="E186" s="67"/>
-      <c r="F186" s="67"/>
-      <c r="G186" s="67"/>
-      <c r="H186" s="68"/>
+      <c r="A186" s="133"/>
+      <c r="B186" s="134"/>
+      <c r="C186" s="134"/>
+      <c r="D186" s="135"/>
+      <c r="E186" s="135"/>
+      <c r="F186" s="135"/>
+      <c r="G186" s="135"/>
+      <c r="H186" s="136"/>
     </row>
     <row r="187" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
@@ -5541,70 +5548,70 @@
       <c r="H207" s="58"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="69" t="s">
+      <c r="A208" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="B208" s="70"/>
-      <c r="C208" s="73" t="str">
+      <c r="B208" s="138"/>
+      <c r="C208" s="142" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D208" s="70"/>
-      <c r="E208" s="70"/>
-      <c r="F208" s="70"/>
-      <c r="G208" s="74"/>
-      <c r="H208" s="82"/>
+      <c r="D208" s="138"/>
+      <c r="E208" s="138"/>
+      <c r="F208" s="138"/>
+      <c r="G208" s="143"/>
+      <c r="H208" s="139"/>
     </row>
     <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="59" t="s">
+      <c r="A209" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="B209" s="60"/>
-      <c r="C209" s="75" t="str">
+      <c r="B209" s="128"/>
+      <c r="C209" s="144" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D209" s="76"/>
-      <c r="E209" s="76"/>
-      <c r="F209" s="76"/>
-      <c r="G209" s="77"/>
-      <c r="H209" s="83"/>
+      <c r="D209" s="145"/>
+      <c r="E209" s="145"/>
+      <c r="F209" s="145"/>
+      <c r="G209" s="146"/>
+      <c r="H209" s="140"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="59" t="s">
+      <c r="A210" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="B210" s="60"/>
-      <c r="C210" s="78" t="str">
+      <c r="B210" s="128"/>
+      <c r="C210" s="147" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D210" s="60"/>
-      <c r="E210" s="60"/>
-      <c r="F210" s="60"/>
-      <c r="G210" s="79"/>
-      <c r="H210" s="83"/>
+      <c r="D210" s="128"/>
+      <c r="E210" s="128"/>
+      <c r="F210" s="128"/>
+      <c r="G210" s="148"/>
+      <c r="H210" s="140"/>
     </row>
     <row r="211" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="61" t="s">
+      <c r="A211" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="B211" s="62"/>
-      <c r="C211" s="80" t="str">
+      <c r="B211" s="130"/>
+      <c r="C211" s="149" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D211" s="62"/>
-      <c r="E211" s="62"/>
-      <c r="F211" s="62"/>
-      <c r="G211" s="81"/>
-      <c r="H211" s="84"/>
+      <c r="D211" s="130"/>
+      <c r="E211" s="130"/>
+      <c r="F211" s="130"/>
+      <c r="G211" s="150"/>
+      <c r="H211" s="141"/>
     </row>
     <row r="212" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="63" t="s">
+      <c r="A212" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="B212" s="64"/>
+      <c r="B212" s="132"/>
       <c r="C212" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5628,14 +5635,14 @@
       </c>
     </row>
     <row r="213" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="65"/>
-      <c r="B213" s="66"/>
-      <c r="C213" s="66"/>
-      <c r="D213" s="67"/>
-      <c r="E213" s="67"/>
-      <c r="F213" s="67"/>
-      <c r="G213" s="67"/>
-      <c r="H213" s="68"/>
+      <c r="A213" s="133"/>
+      <c r="B213" s="134"/>
+      <c r="C213" s="134"/>
+      <c r="D213" s="135"/>
+      <c r="E213" s="135"/>
+      <c r="F213" s="135"/>
+      <c r="G213" s="135"/>
+      <c r="H213" s="136"/>
     </row>
     <row r="214" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
@@ -5829,112 +5836,124 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="A175:E175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="A177:H177"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="H139:H142"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C140:G140"/>
-    <mergeCell ref="C141:G141"/>
-    <mergeCell ref="C142:G142"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="C137:H138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="H181:H184"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="C184:G184"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:H213"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="H208:H211"/>
+    <mergeCell ref="C208:G208"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B21:H22"/>
+    <mergeCell ref="B23:H42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C56:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="H97:H100"/>
@@ -5958,124 +5977,112 @@
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A101:E101"/>
     <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C56:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B23:H42"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:H213"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="H208:H211"/>
-    <mergeCell ref="C208:G208"/>
-    <mergeCell ref="C209:G209"/>
-    <mergeCell ref="C210:G210"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="H181:H184"/>
-    <mergeCell ref="C181:G181"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C183:G183"/>
-    <mergeCell ref="C184:G184"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="H139:H142"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="C137:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="A177:H177"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="G174:H174"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Compass.Wpf/JobCardEn.xlsx
+++ b/Compass.Wpf/JobCardEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D371558-7421-4224-8EEA-8CC00721DC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0032D8-A4D5-4D8D-BE14-B3AB94DD4ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobCard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="170">
   <si>
     <t>Order Number 订单编号</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>配件清单</t>
-  </si>
-  <si>
-    <t>Production Record 生产过程记录</t>
   </si>
   <si>
     <t>Comments 有无异常</t>
@@ -1520,7 +1517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1688,91 +1685,88 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1781,39 +1775,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1823,14 +1835,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1845,129 +1851,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1980,11 +1863,131 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2529,7 +2532,7 @@
   </sheetPr>
   <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:H42"/>
     </sheetView>
   </sheetViews>
@@ -2549,94 +2552,94 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
-      <c r="C1" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="C1" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="89"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="124" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="121"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="90"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="122"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="90"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="122"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="91"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="123"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="115" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
@@ -2665,24 +2668,24 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="116"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="100"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="118"/>
+      <c r="H9" s="103"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -2694,50 +2697,50 @@
       <c r="C10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="100"/>
+      <c r="D10" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="96"/>
       <c r="F10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="120"/>
+      <c r="H10" s="105"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="112"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="100"/>
+      <c r="D11" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="96"/>
       <c r="F11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="113">
+      <c r="G11" s="97">
         <v>43826</v>
       </c>
-      <c r="H11" s="114"/>
+      <c r="H11" s="98"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="100"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="100"/>
+      <c r="D12" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="96"/>
       <c r="F12" s="24" t="s">
         <v>10</v>
       </c>
@@ -2758,10 +2761,10 @@
       <c r="C13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="100"/>
+      <c r="D13" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="96"/>
       <c r="F13" s="24" t="s">
         <v>10</v>
       </c>
@@ -2780,10 +2783,10 @@
       <c r="C14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="100"/>
+      <c r="D14" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="96"/>
       <c r="F14" s="24" t="s">
         <v>10</v>
       </c>
@@ -2802,10 +2805,10 @@
       <c r="C15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="100"/>
+      <c r="D15" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="96"/>
       <c r="F15" s="24" t="s">
         <v>10</v>
       </c>
@@ -2841,10 +2844,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="106"/>
+      <c r="A17" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="86"/>
       <c r="C17" s="46" t="s">
         <v>25</v>
       </c>
@@ -2893,472 +2896,472 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="107" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="109"/>
+      <c r="A19" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="111"/>
+      <c r="C19" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="112"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="109"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="112"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="114"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="114"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="158"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="114"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="158"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="154"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="111"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="156"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="111"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="156"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="156"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="156"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="158"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="156"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="158"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="156"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="158"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="156"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="158"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="156"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="158"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="158"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="156"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="158"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="156"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="158"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="156"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="158"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="156"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="158"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
-      <c r="B35" s="155"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="158"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="156"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="158"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="156"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="158"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54"/>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="156"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="158"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54"/>
-      <c r="B39" s="155"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="156"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="158"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54"/>
-      <c r="B40" s="155"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="156"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="158"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54"/>
-      <c r="B41" s="155"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="156"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="158"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="55"/>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="158"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="160"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="100"/>
+      <c r="A43" s="100">
+        <v>2</v>
+      </c>
+      <c r="B43" s="96"/>
       <c r="C43" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="41" t="s">
+      <c r="H43" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="32" t="s">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="85" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="100"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="102"/>
-      <c r="F44" s="103"/>
+      <c r="D44" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="107"/>
+      <c r="F44" s="108"/>
       <c r="G44" s="42"/>
       <c r="H44" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="100"/>
+      <c r="A45" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="96"/>
       <c r="C45" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="102"/>
-      <c r="F45" s="103"/>
+      <c r="D45" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="107"/>
+      <c r="F45" s="108"/>
       <c r="G45" s="42"/>
       <c r="H45" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="99" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="100"/>
+      <c r="A46" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="96"/>
       <c r="C46" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="102"/>
-      <c r="F46" s="103"/>
+      <c r="D46" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="107"/>
+      <c r="F46" s="108"/>
       <c r="G46" s="42"/>
       <c r="H46" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="100"/>
+      <c r="A47" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="96"/>
       <c r="C47" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="102"/>
-      <c r="F47" s="103"/>
+      <c r="D47" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="107"/>
+      <c r="F47" s="108"/>
       <c r="G47" s="42"/>
       <c r="H47" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="99" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="100"/>
+      <c r="A48" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="96"/>
       <c r="C48" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="102"/>
-      <c r="F48" s="103"/>
+      <c r="D48" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="107"/>
+      <c r="F48" s="108"/>
       <c r="G48" s="42"/>
       <c r="H48" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="100"/>
+      <c r="A49" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="96"/>
       <c r="C49" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="102"/>
-      <c r="F49" s="103"/>
+      <c r="D49" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="107"/>
+      <c r="F49" s="108"/>
       <c r="G49" s="42"/>
       <c r="H49" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="100"/>
+      <c r="A50" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="96"/>
       <c r="C50" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="102"/>
-      <c r="F50" s="103"/>
+      <c r="D50" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="107"/>
+      <c r="F50" s="108"/>
       <c r="G50" s="42"/>
       <c r="H50" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="100"/>
+      <c r="A51" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="96"/>
       <c r="C51" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="102"/>
-      <c r="F51" s="103"/>
+      <c r="D51" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="107"/>
+      <c r="F51" s="108"/>
       <c r="G51" s="42"/>
       <c r="H51" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="100"/>
+      <c r="A52" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="96"/>
       <c r="C52" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="102"/>
-      <c r="F52" s="103"/>
+      <c r="D52" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="107"/>
+      <c r="F52" s="108"/>
       <c r="G52" s="42"/>
       <c r="H52" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="100"/>
+      <c r="A53" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="96"/>
       <c r="C53" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="102"/>
-      <c r="F53" s="103"/>
+      <c r="D53" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="107"/>
+      <c r="F53" s="108"/>
       <c r="G53" s="42"/>
       <c r="H53" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="100"/>
+      <c r="A54" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="96"/>
       <c r="C54" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="102"/>
-      <c r="F54" s="103"/>
+      <c r="D54" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="107"/>
+      <c r="F54" s="108"/>
       <c r="G54" s="42"/>
       <c r="H54" s="32" t="s">
         <v>10</v>
@@ -3377,185 +3380,185 @@
     <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
-      <c r="C56" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
+      <c r="C56" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="73" t="s">
+      <c r="A58" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="74"/>
-      <c r="C58" s="82" t="str">
+      <c r="B58" s="120"/>
+      <c r="C58" s="129" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="79"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="126"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="90" t="str">
+      <c r="B59" s="120"/>
+      <c r="C59" s="131" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="80"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="132"/>
+      <c r="G59" s="132"/>
+      <c r="H59" s="127"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="90" t="str">
+      <c r="B60" s="120"/>
+      <c r="C60" s="131" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="80"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="132"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="127"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="98"/>
-      <c r="C61" s="93" t="str">
+      <c r="B61" s="122"/>
+      <c r="C61" s="133" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="81"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="128"/>
     </row>
     <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="78"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
+      <c r="A62" s="123"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
       <c r="F62" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G62" s="45" t="s">
+      <c r="H62" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H62" s="45" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="63" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="96" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="96"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="96"/>
+      <c r="A63" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="124"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="85" t="s">
+      <c r="A64" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="34"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="34"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="85" t="s">
+      <c r="B65" s="125"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="34"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="34"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="85" t="s">
+      <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="34"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="34"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="85" t="s">
+      <c r="B67" s="125"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="34"/>
+    </row>
+    <row r="68" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="34"/>
-    </row>
-    <row r="68" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
+      <c r="B68" s="125"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="125"/>
       <c r="F68" s="34" t="s">
         <v>10</v>
       </c>
@@ -3565,13 +3568,13 @@
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69" s="96"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="96"/>
+      <c r="A69" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="124"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33" t="s">
         <v>10</v>
@@ -3579,109 +3582,109 @@
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="85" t="s">
+      <c r="A70" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="125"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="34"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="34"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="85" t="s">
+      <c r="B71" s="125"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="34"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="34"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="85" t="s">
+      <c r="B72" s="125"/>
+      <c r="C72" s="125"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="34"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="125"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="125"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="34"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="125"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="34"/>
+    </row>
+    <row r="75" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="34"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="34"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="34"/>
-    </row>
-    <row r="75" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="85" t="s">
+      <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="34"/>
+    </row>
+    <row r="76" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="34"/>
-    </row>
-    <row r="76" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="96"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="96"/>
+      <c r="B76" s="124"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="124"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33" t="s">
         <v>10</v>
@@ -3689,29 +3692,29 @@
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="34"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="34"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="85"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
+      <c r="B78" s="125"/>
+      <c r="C78" s="125"/>
+      <c r="D78" s="125"/>
+      <c r="E78" s="125"/>
       <c r="F78" s="34" t="s">
         <v>10</v>
       </c>
@@ -3721,29 +3724,29 @@
       <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="85" t="s">
+      <c r="A79" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
+      <c r="E79" s="125"/>
+      <c r="F79" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="34"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="34"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="85"/>
+      <c r="B80" s="125"/>
+      <c r="C80" s="125"/>
+      <c r="D80" s="125"/>
+      <c r="E80" s="125"/>
       <c r="F80" s="34" t="s">
         <v>10</v>
       </c>
@@ -3753,13 +3756,13 @@
       <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="96"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
+      <c r="A81" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="124"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="124"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33" t="s">
         <v>10</v>
@@ -3767,189 +3770,189 @@
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="85" t="s">
+      <c r="A82" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="125"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="34"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="85"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" s="34"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="85" t="s">
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="34"/>
+    </row>
+    <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="34"/>
-    </row>
-    <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="85" t="s">
+      <c r="B84" s="125"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="34"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="B84" s="85"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="34"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="85" t="s">
+      <c r="B85" s="125"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="125"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="34"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="85"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="34"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="85" t="s">
+      <c r="B86" s="125"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="34"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="85"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="34"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="85" t="s">
+      <c r="B87" s="125"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
+      <c r="F87" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="34"/>
+    </row>
+    <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="34"/>
-    </row>
-    <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="85" t="s">
+      <c r="B88" s="125"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="125"/>
+      <c r="F88" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="34"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="85"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="34"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="85" t="s">
+      <c r="B89" s="125"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="34"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="85"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="34"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="85" t="s">
+      <c r="B90" s="125"/>
+      <c r="C90" s="125"/>
+      <c r="D90" s="125"/>
+      <c r="E90" s="125"/>
+      <c r="F90" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="34"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="34"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="85" t="s">
+      <c r="B91" s="125"/>
+      <c r="C91" s="125"/>
+      <c r="D91" s="125"/>
+      <c r="E91" s="125"/>
+      <c r="F91" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="34"/>
+    </row>
+    <row r="92" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="85"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="34"/>
-    </row>
-    <row r="92" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="85" t="s">
+      <c r="B92" s="125"/>
+      <c r="C92" s="125"/>
+      <c r="D92" s="125"/>
+      <c r="E92" s="125"/>
+      <c r="F92" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="34"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="85"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="34"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
+      <c r="B93" s="125"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="125"/>
+      <c r="E93" s="125"/>
       <c r="F93" s="34" t="s">
         <v>10</v>
       </c>
@@ -3971,109 +3974,109 @@
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
-      <c r="C95" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="D95" s="88"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="88"/>
-      <c r="H95" s="88"/>
+      <c r="C95" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" s="87"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="87"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="89"/>
-      <c r="G96" s="89"/>
-      <c r="H96" s="89"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="88"/>
+      <c r="H96" s="88"/>
     </row>
     <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="73" t="s">
+      <c r="A97" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="74"/>
-      <c r="C97" s="82" t="str">
+      <c r="B97" s="120"/>
+      <c r="C97" s="129" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="84"/>
-      <c r="H97" s="79"/>
+      <c r="D97" s="130"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="130"/>
+      <c r="G97" s="135"/>
+      <c r="H97" s="126"/>
     </row>
     <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="73" t="s">
+      <c r="A98" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="74"/>
-      <c r="C98" s="90" t="str">
+      <c r="B98" s="120"/>
+      <c r="C98" s="131" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D98" s="91"/>
-      <c r="E98" s="91"/>
-      <c r="F98" s="91"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="80"/>
+      <c r="D98" s="132"/>
+      <c r="E98" s="132"/>
+      <c r="F98" s="132"/>
+      <c r="G98" s="136"/>
+      <c r="H98" s="127"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="74"/>
-      <c r="C99" s="90" t="str">
+      <c r="B99" s="120"/>
+      <c r="C99" s="131" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D99" s="91"/>
-      <c r="E99" s="91"/>
-      <c r="F99" s="91"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="80"/>
+      <c r="D99" s="132"/>
+      <c r="E99" s="132"/>
+      <c r="F99" s="132"/>
+      <c r="G99" s="136"/>
+      <c r="H99" s="127"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="97" t="s">
+      <c r="A100" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="98"/>
-      <c r="C100" s="93" t="str">
+      <c r="B100" s="122"/>
+      <c r="C100" s="133" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D100" s="94"/>
-      <c r="E100" s="94"/>
-      <c r="F100" s="94"/>
-      <c r="G100" s="95"/>
-      <c r="H100" s="81"/>
+      <c r="D100" s="134"/>
+      <c r="E100" s="134"/>
+      <c r="F100" s="134"/>
+      <c r="G100" s="137"/>
+      <c r="H100" s="128"/>
     </row>
     <row r="101" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A101" s="78"/>
-      <c r="B101" s="78"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="78"/>
-      <c r="E101" s="78"/>
+      <c r="A101" s="123"/>
+      <c r="B101" s="123"/>
+      <c r="C101" s="123"/>
+      <c r="D101" s="123"/>
+      <c r="E101" s="123"/>
       <c r="F101" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G101" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G101" s="45" t="s">
+      <c r="H101" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H101" s="45" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="102" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="B102" s="96"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="96"/>
-      <c r="E102" s="96"/>
+      <c r="A102" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="124"/>
+      <c r="C102" s="124"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="124"/>
       <c r="F102" s="33"/>
       <c r="G102" s="33" t="s">
         <v>10</v>
@@ -4081,45 +4084,45 @@
       <c r="H102" s="33"/>
     </row>
     <row r="103" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="85" t="s">
+      <c r="A103" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" s="125"/>
+      <c r="C103" s="125"/>
+      <c r="D103" s="125"/>
+      <c r="E103" s="125"/>
+      <c r="F103" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="34"/>
+    </row>
+    <row r="104" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B103" s="85"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="34"/>
-    </row>
-    <row r="104" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="85" t="s">
+      <c r="B104" s="125"/>
+      <c r="C104" s="125"/>
+      <c r="D104" s="125"/>
+      <c r="E104" s="125"/>
+      <c r="F104" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="34"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="B104" s="85"/>
-      <c r="C104" s="85"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H104" s="34"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="B105" s="85"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
       <c r="F105" s="34" t="s">
         <v>10</v>
       </c>
@@ -4129,13 +4132,13 @@
       <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="B106" s="96"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="96"/>
-      <c r="E106" s="96"/>
+      <c r="A106" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" s="124"/>
+      <c r="C106" s="124"/>
+      <c r="D106" s="124"/>
+      <c r="E106" s="124"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33" t="s">
         <v>10</v>
@@ -4143,464 +4146,464 @@
       <c r="H106" s="33"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="85" t="s">
+      <c r="A107" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="B107" s="125"/>
+      <c r="C107" s="125"/>
+      <c r="D107" s="125"/>
+      <c r="E107" s="125"/>
+      <c r="F107" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="34"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="B107" s="85"/>
-      <c r="C107" s="85"/>
-      <c r="D107" s="85"/>
-      <c r="E107" s="85"/>
-      <c r="F107" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="34"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="85" t="s">
+      <c r="B108" s="125"/>
+      <c r="C108" s="125"/>
+      <c r="D108" s="125"/>
+      <c r="E108" s="125"/>
+      <c r="F108" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="34"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="B108" s="85"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="34"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="85" t="s">
+      <c r="B109" s="125"/>
+      <c r="C109" s="125"/>
+      <c r="D109" s="125"/>
+      <c r="E109" s="125"/>
+      <c r="F109" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="34"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="85"/>
-      <c r="C109" s="85"/>
-      <c r="D109" s="85"/>
-      <c r="E109" s="85"/>
-      <c r="F109" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="34"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="85" t="s">
+      <c r="B110" s="125"/>
+      <c r="C110" s="125"/>
+      <c r="D110" s="125"/>
+      <c r="E110" s="125"/>
+      <c r="F110" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="34"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="85"/>
-      <c r="C110" s="85"/>
-      <c r="D110" s="85"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H110" s="34"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="85" t="s">
+      <c r="B111" s="125"/>
+      <c r="C111" s="125"/>
+      <c r="D111" s="125"/>
+      <c r="E111" s="125"/>
+      <c r="F111" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="34"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="B111" s="85"/>
-      <c r="C111" s="85"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="34"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="85" t="s">
+      <c r="B112" s="125"/>
+      <c r="C112" s="125"/>
+      <c r="D112" s="125"/>
+      <c r="E112" s="125"/>
+      <c r="F112" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="34"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="B112" s="85"/>
-      <c r="C112" s="85"/>
-      <c r="D112" s="85"/>
-      <c r="E112" s="85"/>
-      <c r="F112" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H112" s="34"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="85" t="s">
+      <c r="B113" s="125"/>
+      <c r="C113" s="125"/>
+      <c r="D113" s="125"/>
+      <c r="E113" s="125"/>
+      <c r="F113" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" s="34"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="B113" s="85"/>
-      <c r="C113" s="85"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H113" s="34"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="85" t="s">
+      <c r="B114" s="125"/>
+      <c r="C114" s="125"/>
+      <c r="D114" s="125"/>
+      <c r="E114" s="125"/>
+      <c r="F114" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="34"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="B114" s="85"/>
-      <c r="C114" s="85"/>
-      <c r="D114" s="85"/>
-      <c r="E114" s="85"/>
-      <c r="F114" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H114" s="34"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="85" t="s">
+      <c r="B115" s="125"/>
+      <c r="C115" s="125"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="34"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="B115" s="85"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="34"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="85" t="s">
+      <c r="B116" s="125"/>
+      <c r="C116" s="125"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
+      <c r="F116" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="34"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="85"/>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="34"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="85" t="s">
+      <c r="B117" s="125"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="125"/>
+      <c r="F117" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="34"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="B117" s="85"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="34"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="85" t="s">
+      <c r="B118" s="125"/>
+      <c r="C118" s="125"/>
+      <c r="D118" s="125"/>
+      <c r="E118" s="125"/>
+      <c r="F118" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="34"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B118" s="85"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" s="34"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="85" t="s">
+      <c r="B119" s="125"/>
+      <c r="C119" s="125"/>
+      <c r="D119" s="125"/>
+      <c r="E119" s="125"/>
+      <c r="F119" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="34"/>
+    </row>
+    <row r="120" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="B119" s="85"/>
-      <c r="C119" s="85"/>
-      <c r="D119" s="85"/>
-      <c r="E119" s="85"/>
-      <c r="F119" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H119" s="34"/>
-    </row>
-    <row r="120" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="85" t="s">
+      <c r="B120" s="125"/>
+      <c r="C120" s="125"/>
+      <c r="D120" s="125"/>
+      <c r="E120" s="125"/>
+      <c r="F120" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="34"/>
+    </row>
+    <row r="121" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="B120" s="85"/>
-      <c r="C120" s="85"/>
-      <c r="D120" s="85"/>
-      <c r="E120" s="85"/>
-      <c r="F120" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H120" s="34"/>
-    </row>
-    <row r="121" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="85" t="s">
+      <c r="B121" s="125"/>
+      <c r="C121" s="125"/>
+      <c r="D121" s="125"/>
+      <c r="E121" s="125"/>
+      <c r="F121" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="34"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="B121" s="85"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" s="34"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="85" t="s">
+      <c r="B122" s="125"/>
+      <c r="C122" s="125"/>
+      <c r="D122" s="125"/>
+      <c r="E122" s="125"/>
+      <c r="F122" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="34"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="85"/>
-      <c r="C122" s="85"/>
-      <c r="D122" s="85"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H122" s="34"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="85" t="s">
+      <c r="B123" s="125"/>
+      <c r="C123" s="125"/>
+      <c r="D123" s="125"/>
+      <c r="E123" s="125"/>
+      <c r="F123" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="34"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" s="34"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="85" t="s">
+      <c r="B124" s="125"/>
+      <c r="C124" s="125"/>
+      <c r="D124" s="125"/>
+      <c r="E124" s="125"/>
+      <c r="F124" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="34"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="B124" s="85"/>
-      <c r="C124" s="85"/>
-      <c r="D124" s="85"/>
-      <c r="E124" s="85"/>
-      <c r="F124" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H124" s="34"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="85" t="s">
+      <c r="B125" s="125"/>
+      <c r="C125" s="125"/>
+      <c r="D125" s="125"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="34"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H125" s="34"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="85" t="s">
+      <c r="B126" s="125"/>
+      <c r="C126" s="125"/>
+      <c r="D126" s="125"/>
+      <c r="E126" s="125"/>
+      <c r="F126" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="34"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B126" s="85"/>
-      <c r="C126" s="85"/>
-      <c r="D126" s="85"/>
-      <c r="E126" s="85"/>
-      <c r="F126" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H126" s="34"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="85" t="s">
+      <c r="B127" s="125"/>
+      <c r="C127" s="125"/>
+      <c r="D127" s="125"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="34"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="B127" s="85"/>
-      <c r="C127" s="85"/>
-      <c r="D127" s="85"/>
-      <c r="E127" s="85"/>
-      <c r="F127" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H127" s="34"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="85" t="s">
+      <c r="B128" s="125"/>
+      <c r="C128" s="125"/>
+      <c r="D128" s="125"/>
+      <c r="E128" s="125"/>
+      <c r="F128" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="34"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="B128" s="85"/>
-      <c r="C128" s="85"/>
-      <c r="D128" s="85"/>
-      <c r="E128" s="85"/>
-      <c r="F128" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="34"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="85" t="s">
+      <c r="B129" s="125"/>
+      <c r="C129" s="125"/>
+      <c r="D129" s="125"/>
+      <c r="E129" s="125"/>
+      <c r="F129" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="34"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="B129" s="85"/>
-      <c r="C129" s="85"/>
-      <c r="D129" s="85"/>
-      <c r="E129" s="85"/>
-      <c r="F129" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="34"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="85" t="s">
+      <c r="B130" s="125"/>
+      <c r="C130" s="125"/>
+      <c r="D130" s="125"/>
+      <c r="E130" s="125"/>
+      <c r="F130" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="34"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="B130" s="85"/>
-      <c r="C130" s="85"/>
-      <c r="D130" s="85"/>
-      <c r="E130" s="85"/>
-      <c r="F130" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H130" s="34"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="85" t="s">
+      <c r="B131" s="125"/>
+      <c r="C131" s="125"/>
+      <c r="D131" s="125"/>
+      <c r="E131" s="125"/>
+      <c r="F131" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="34"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="B131" s="85"/>
-      <c r="C131" s="85"/>
-      <c r="D131" s="85"/>
-      <c r="E131" s="85"/>
-      <c r="F131" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H131" s="34"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="85" t="s">
+      <c r="B132" s="125"/>
+      <c r="C132" s="125"/>
+      <c r="D132" s="125"/>
+      <c r="E132" s="125"/>
+      <c r="F132" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="34"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="B132" s="85"/>
-      <c r="C132" s="85"/>
-      <c r="D132" s="85"/>
-      <c r="E132" s="85"/>
-      <c r="F132" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H132" s="34"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="85" t="s">
+      <c r="B133" s="125"/>
+      <c r="C133" s="125"/>
+      <c r="D133" s="125"/>
+      <c r="E133" s="125"/>
+      <c r="F133" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="34"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="B133" s="85"/>
-      <c r="C133" s="85"/>
-      <c r="D133" s="85"/>
-      <c r="E133" s="85"/>
-      <c r="F133" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H133" s="34"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="85" t="s">
+      <c r="B134" s="125"/>
+      <c r="C134" s="125"/>
+      <c r="D134" s="125"/>
+      <c r="E134" s="125"/>
+      <c r="F134" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="34"/>
+    </row>
+    <row r="135" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="B134" s="85"/>
-      <c r="C134" s="85"/>
-      <c r="D134" s="85"/>
-      <c r="E134" s="85"/>
-      <c r="F134" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H134" s="34"/>
-    </row>
-    <row r="135" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="B135" s="86"/>
-      <c r="C135" s="87"/>
-      <c r="D135" s="87"/>
-      <c r="E135" s="87"/>
-      <c r="F135" s="87"/>
-      <c r="G135" s="87"/>
-      <c r="H135" s="87"/>
+      <c r="B135" s="138"/>
+      <c r="C135" s="139"/>
+      <c r="D135" s="139"/>
+      <c r="E135" s="139"/>
+      <c r="F135" s="139"/>
+      <c r="G135" s="139"/>
+      <c r="H135" s="139"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="50"/>
@@ -4615,634 +4618,634 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
-      <c r="C137" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="D137" s="88"/>
-      <c r="E137" s="88"/>
-      <c r="F137" s="88"/>
-      <c r="G137" s="88"/>
-      <c r="H137" s="88"/>
+      <c r="C137" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D137" s="87"/>
+      <c r="E137" s="87"/>
+      <c r="F137" s="87"/>
+      <c r="G137" s="87"/>
+      <c r="H137" s="87"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
-      <c r="C138" s="89"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="89"/>
-      <c r="G138" s="89"/>
-      <c r="H138" s="89"/>
+      <c r="C138" s="88"/>
+      <c r="D138" s="88"/>
+      <c r="E138" s="88"/>
+      <c r="F138" s="88"/>
+      <c r="G138" s="88"/>
+      <c r="H138" s="88"/>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="B139" s="74"/>
-      <c r="C139" s="82" t="str">
+      <c r="A139" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" s="120"/>
+      <c r="C139" s="129" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D139" s="83"/>
-      <c r="E139" s="83"/>
-      <c r="F139" s="83"/>
-      <c r="G139" s="84"/>
-      <c r="H139" s="79"/>
+      <c r="D139" s="130"/>
+      <c r="E139" s="130"/>
+      <c r="F139" s="130"/>
+      <c r="G139" s="135"/>
+      <c r="H139" s="126"/>
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="B140" s="74"/>
-      <c r="C140" s="82" t="str">
+      <c r="A140" s="119" t="s">
+        <v>127</v>
+      </c>
+      <c r="B140" s="120"/>
+      <c r="C140" s="129" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D140" s="83"/>
-      <c r="E140" s="83"/>
-      <c r="F140" s="83"/>
-      <c r="G140" s="84"/>
-      <c r="H140" s="80"/>
+      <c r="D140" s="130"/>
+      <c r="E140" s="130"/>
+      <c r="F140" s="130"/>
+      <c r="G140" s="135"/>
+      <c r="H140" s="127"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="B141" s="74"/>
-      <c r="C141" s="82" t="str">
+      <c r="A141" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B141" s="120"/>
+      <c r="C141" s="129" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D141" s="83"/>
-      <c r="E141" s="83"/>
-      <c r="F141" s="83"/>
-      <c r="G141" s="84"/>
-      <c r="H141" s="80"/>
+      <c r="D141" s="130"/>
+      <c r="E141" s="130"/>
+      <c r="F141" s="130"/>
+      <c r="G141" s="135"/>
+      <c r="H141" s="127"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="B142" s="74"/>
-      <c r="C142" s="82" t="str">
+      <c r="A142" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="B142" s="120"/>
+      <c r="C142" s="129" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D142" s="83"/>
-      <c r="E142" s="83"/>
-      <c r="F142" s="83"/>
-      <c r="G142" s="84"/>
-      <c r="H142" s="81"/>
+      <c r="D142" s="130"/>
+      <c r="E142" s="130"/>
+      <c r="F142" s="130"/>
+      <c r="G142" s="135"/>
+      <c r="H142" s="128"/>
     </row>
     <row r="143" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="B143" s="76"/>
-      <c r="C143" s="75" t="s">
+      <c r="A143" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="D143" s="77"/>
-      <c r="E143" s="77"/>
+      <c r="B143" s="149"/>
+      <c r="C143" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="D143" s="150"/>
+      <c r="E143" s="150"/>
       <c r="F143" s="35"/>
-      <c r="G143" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="H143" s="78"/>
+      <c r="G143" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="123"/>
     </row>
     <row r="144" spans="1:8" s="37" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="69" t="s">
+      <c r="A144" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="141"/>
+      <c r="C144" s="141"/>
+      <c r="D144" s="141"/>
+      <c r="E144" s="142"/>
+      <c r="F144" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="36" t="s">
+      <c r="G144" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="G144" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="H144" s="72"/>
+      <c r="H144" s="143"/>
     </row>
     <row r="145" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="B145" s="60"/>
-      <c r="C145" s="60"/>
-      <c r="D145" s="60"/>
-      <c r="E145" s="61"/>
+      <c r="A145" s="144" t="s">
+        <v>164</v>
+      </c>
+      <c r="B145" s="145"/>
+      <c r="C145" s="145"/>
+      <c r="D145" s="145"/>
+      <c r="E145" s="146"/>
       <c r="F145" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G145" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H145" s="62"/>
+      <c r="G145" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H145" s="147"/>
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B146" s="60"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="61"/>
+      <c r="A146" s="144" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" s="145"/>
+      <c r="C146" s="145"/>
+      <c r="D146" s="145"/>
+      <c r="E146" s="146"/>
       <c r="F146" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G146" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H146" s="62"/>
+      <c r="G146" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H146" s="147"/>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="B147" s="60"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="60"/>
-      <c r="E147" s="61"/>
+      <c r="A147" s="144" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" s="145"/>
+      <c r="C147" s="145"/>
+      <c r="D147" s="145"/>
+      <c r="E147" s="146"/>
       <c r="F147" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G147" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H147" s="62"/>
+      <c r="G147" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H147" s="147"/>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="59" t="s">
+      <c r="A148" s="144" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="145"/>
+      <c r="C148" s="145"/>
+      <c r="D148" s="145"/>
+      <c r="E148" s="146"/>
+      <c r="F148" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H148" s="147"/>
+    </row>
+    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="B148" s="60"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="60"/>
-      <c r="E148" s="61"/>
-      <c r="F148" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H148" s="62"/>
-    </row>
-    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B149" s="60"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="60"/>
-      <c r="E149" s="61"/>
+      <c r="B149" s="145"/>
+      <c r="C149" s="145"/>
+      <c r="D149" s="145"/>
+      <c r="E149" s="146"/>
       <c r="F149" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G149" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H149" s="62"/>
+      <c r="G149" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H149" s="147"/>
     </row>
     <row r="150" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="B150" s="60"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="60"/>
-      <c r="E150" s="61"/>
+      <c r="A150" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" s="145"/>
+      <c r="C150" s="145"/>
+      <c r="D150" s="145"/>
+      <c r="E150" s="146"/>
       <c r="F150" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G150" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H150" s="62"/>
+      <c r="G150" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H150" s="147"/>
     </row>
     <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="59" t="s">
+      <c r="A151" s="144" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" s="145"/>
+      <c r="C151" s="145"/>
+      <c r="D151" s="145"/>
+      <c r="E151" s="146"/>
+      <c r="F151" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H151" s="147"/>
+    </row>
+    <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="B151" s="60"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="60"/>
-      <c r="E151" s="61"/>
-      <c r="F151" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H151" s="62"/>
-    </row>
-    <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="B152" s="60"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="60"/>
-      <c r="E152" s="61"/>
+      <c r="B152" s="145"/>
+      <c r="C152" s="145"/>
+      <c r="D152" s="145"/>
+      <c r="E152" s="146"/>
       <c r="F152" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G152" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H152" s="62"/>
+      <c r="G152" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H152" s="147"/>
     </row>
     <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="B153" s="60"/>
-      <c r="C153" s="60"/>
-      <c r="D153" s="60"/>
-      <c r="E153" s="61"/>
+      <c r="A153" s="144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="145"/>
+      <c r="C153" s="145"/>
+      <c r="D153" s="145"/>
+      <c r="E153" s="146"/>
       <c r="F153" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G153" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H153" s="62"/>
+      <c r="G153" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H153" s="147"/>
     </row>
     <row r="154" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" s="60"/>
-      <c r="C154" s="60"/>
-      <c r="D154" s="60"/>
-      <c r="E154" s="61"/>
+      <c r="A154" s="144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="145"/>
+      <c r="C154" s="145"/>
+      <c r="D154" s="145"/>
+      <c r="E154" s="146"/>
       <c r="F154" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G154" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H154" s="62"/>
+      <c r="G154" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H154" s="147"/>
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155" s="60"/>
-      <c r="C155" s="60"/>
-      <c r="D155" s="60"/>
-      <c r="E155" s="61"/>
+      <c r="A155" s="144" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="145"/>
+      <c r="C155" s="145"/>
+      <c r="D155" s="145"/>
+      <c r="E155" s="146"/>
       <c r="F155" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G155" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H155" s="62"/>
+      <c r="G155" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H155" s="147"/>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="B156" s="60"/>
-      <c r="C156" s="60"/>
-      <c r="D156" s="60"/>
-      <c r="E156" s="61"/>
+      <c r="A156" s="144" t="s">
+        <v>153</v>
+      </c>
+      <c r="B156" s="145"/>
+      <c r="C156" s="145"/>
+      <c r="D156" s="145"/>
+      <c r="E156" s="146"/>
       <c r="F156" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G156" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H156" s="62"/>
+      <c r="G156" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H156" s="147"/>
     </row>
     <row r="157" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="B157" s="60"/>
-      <c r="C157" s="60"/>
-      <c r="D157" s="60"/>
-      <c r="E157" s="61"/>
+      <c r="A157" s="144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" s="145"/>
+      <c r="C157" s="145"/>
+      <c r="D157" s="145"/>
+      <c r="E157" s="146"/>
       <c r="F157" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G157" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H157" s="62"/>
+      <c r="G157" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H157" s="147"/>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="B158" s="60"/>
-      <c r="C158" s="60"/>
-      <c r="D158" s="60"/>
-      <c r="E158" s="61"/>
+      <c r="A158" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="145"/>
+      <c r="C158" s="145"/>
+      <c r="D158" s="145"/>
+      <c r="E158" s="146"/>
       <c r="F158" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G158" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H158" s="62"/>
+      <c r="G158" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H158" s="147"/>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="B159" s="60"/>
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="61"/>
+      <c r="A159" s="144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B159" s="145"/>
+      <c r="C159" s="145"/>
+      <c r="D159" s="145"/>
+      <c r="E159" s="146"/>
       <c r="F159" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G159" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H159" s="62"/>
+      <c r="G159" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H159" s="147"/>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B160" s="60"/>
-      <c r="C160" s="60"/>
-      <c r="D160" s="60"/>
-      <c r="E160" s="61"/>
+      <c r="A160" s="144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" s="145"/>
+      <c r="C160" s="145"/>
+      <c r="D160" s="145"/>
+      <c r="E160" s="146"/>
       <c r="F160" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G160" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H160" s="62"/>
+      <c r="G160" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H160" s="147"/>
     </row>
     <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="B161" s="60"/>
-      <c r="C161" s="60"/>
-      <c r="D161" s="60"/>
-      <c r="E161" s="61"/>
+      <c r="A161" s="144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B161" s="145"/>
+      <c r="C161" s="145"/>
+      <c r="D161" s="145"/>
+      <c r="E161" s="146"/>
       <c r="F161" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G161" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H161" s="62"/>
+      <c r="G161" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H161" s="147"/>
     </row>
     <row r="162" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="B162" s="60"/>
-      <c r="C162" s="60"/>
-      <c r="D162" s="60"/>
-      <c r="E162" s="61"/>
+      <c r="A162" s="144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B162" s="145"/>
+      <c r="C162" s="145"/>
+      <c r="D162" s="145"/>
+      <c r="E162" s="146"/>
       <c r="F162" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G162" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H162" s="62"/>
+      <c r="G162" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H162" s="147"/>
     </row>
     <row r="163" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="B163" s="60"/>
-      <c r="C163" s="60"/>
-      <c r="D163" s="60"/>
-      <c r="E163" s="61"/>
+      <c r="A163" s="144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B163" s="145"/>
+      <c r="C163" s="145"/>
+      <c r="D163" s="145"/>
+      <c r="E163" s="146"/>
       <c r="F163" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G163" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H163" s="62"/>
+      <c r="G163" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H163" s="147"/>
     </row>
     <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="B164" s="60"/>
-      <c r="C164" s="60"/>
-      <c r="D164" s="60"/>
-      <c r="E164" s="61"/>
+      <c r="A164" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B164" s="145"/>
+      <c r="C164" s="145"/>
+      <c r="D164" s="145"/>
+      <c r="E164" s="146"/>
       <c r="F164" s="25"/>
-      <c r="G164" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H164" s="62"/>
+      <c r="G164" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H164" s="147"/>
     </row>
     <row r="165" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="B165" s="60"/>
-      <c r="C165" s="60"/>
-      <c r="D165" s="60"/>
-      <c r="E165" s="61"/>
+      <c r="A165" s="144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B165" s="145"/>
+      <c r="C165" s="145"/>
+      <c r="D165" s="145"/>
+      <c r="E165" s="146"/>
       <c r="F165" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G165" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H165" s="62"/>
+      <c r="G165" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H165" s="147"/>
     </row>
     <row r="166" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B166" s="60"/>
-      <c r="C166" s="60"/>
-      <c r="D166" s="60"/>
-      <c r="E166" s="61"/>
+      <c r="A166" s="144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B166" s="145"/>
+      <c r="C166" s="145"/>
+      <c r="D166" s="145"/>
+      <c r="E166" s="146"/>
       <c r="F166" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G166" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H166" s="62"/>
+      <c r="G166" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H166" s="147"/>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="B167" s="60"/>
-      <c r="C167" s="60"/>
-      <c r="D167" s="60"/>
-      <c r="E167" s="61"/>
+      <c r="A167" s="144" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167" s="145"/>
+      <c r="C167" s="145"/>
+      <c r="D167" s="145"/>
+      <c r="E167" s="146"/>
       <c r="F167" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G167" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H167" s="62"/>
+      <c r="G167" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H167" s="147"/>
     </row>
     <row r="168" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="B168" s="60"/>
-      <c r="C168" s="60"/>
-      <c r="D168" s="60"/>
-      <c r="E168" s="61"/>
+      <c r="A168" s="144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B168" s="145"/>
+      <c r="C168" s="145"/>
+      <c r="D168" s="145"/>
+      <c r="E168" s="146"/>
       <c r="F168" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G168" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H168" s="62"/>
+      <c r="G168" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H168" s="147"/>
     </row>
     <row r="169" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="B169" s="60"/>
-      <c r="C169" s="60"/>
-      <c r="D169" s="60"/>
-      <c r="E169" s="61"/>
+      <c r="A169" s="144" t="s">
+        <v>140</v>
+      </c>
+      <c r="B169" s="145"/>
+      <c r="C169" s="145"/>
+      <c r="D169" s="145"/>
+      <c r="E169" s="146"/>
       <c r="F169" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G169" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H169" s="62"/>
+      <c r="G169" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H169" s="147"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B170" s="67"/>
-      <c r="C170" s="67"/>
-      <c r="D170" s="67"/>
-      <c r="E170" s="68"/>
+      <c r="A170" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="B170" s="152"/>
+      <c r="C170" s="152"/>
+      <c r="D170" s="152"/>
+      <c r="E170" s="153"/>
       <c r="F170" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G170" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H170" s="62"/>
+      <c r="G170" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H170" s="147"/>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="B171" s="60"/>
-      <c r="C171" s="60"/>
-      <c r="D171" s="60"/>
-      <c r="E171" s="61"/>
+      <c r="A171" s="144" t="s">
+        <v>138</v>
+      </c>
+      <c r="B171" s="145"/>
+      <c r="C171" s="145"/>
+      <c r="D171" s="145"/>
+      <c r="E171" s="146"/>
       <c r="F171" s="25"/>
-      <c r="G171" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H171" s="62"/>
+      <c r="G171" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H171" s="147"/>
     </row>
     <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="B172" s="60"/>
-      <c r="C172" s="60"/>
-      <c r="D172" s="60"/>
-      <c r="E172" s="61"/>
+      <c r="A172" s="144" t="s">
+        <v>137</v>
+      </c>
+      <c r="B172" s="145"/>
+      <c r="C172" s="145"/>
+      <c r="D172" s="145"/>
+      <c r="E172" s="146"/>
       <c r="F172" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G172" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H172" s="147"/>
+    </row>
+    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="G172" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H172" s="62"/>
-    </row>
-    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="B173" s="60"/>
-      <c r="C173" s="60"/>
-      <c r="D173" s="60"/>
-      <c r="E173" s="61"/>
+      <c r="B173" s="145"/>
+      <c r="C173" s="145"/>
+      <c r="D173" s="145"/>
+      <c r="E173" s="146"/>
       <c r="F173" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G173" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H173" s="62"/>
+        <v>135</v>
+      </c>
+      <c r="G173" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H173" s="147"/>
     </row>
     <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="59" t="s">
+      <c r="A174" s="144" t="s">
+        <v>134</v>
+      </c>
+      <c r="B174" s="145"/>
+      <c r="C174" s="145"/>
+      <c r="D174" s="145"/>
+      <c r="E174" s="146"/>
+      <c r="F174" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B174" s="60"/>
-      <c r="C174" s="60"/>
-      <c r="D174" s="60"/>
-      <c r="E174" s="61"/>
-      <c r="F174" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G174" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H174" s="62"/>
+      <c r="G174" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H174" s="147"/>
     </row>
     <row r="175" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="B175" s="60"/>
-      <c r="C175" s="60"/>
-      <c r="D175" s="60"/>
-      <c r="E175" s="61"/>
+      <c r="A175" s="144" t="s">
+        <v>133</v>
+      </c>
+      <c r="B175" s="145"/>
+      <c r="C175" s="145"/>
+      <c r="D175" s="145"/>
+      <c r="E175" s="146"/>
       <c r="F175" s="25"/>
-      <c r="G175" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H175" s="62"/>
+      <c r="G175" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H175" s="147"/>
     </row>
     <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="B176" s="60"/>
-      <c r="C176" s="60"/>
-      <c r="D176" s="60"/>
-      <c r="E176" s="61"/>
+      <c r="A176" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="B176" s="145"/>
+      <c r="C176" s="145"/>
+      <c r="D176" s="145"/>
+      <c r="E176" s="146"/>
       <c r="F176" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G176" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H176" s="62"/>
+      <c r="G176" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H176" s="147"/>
     </row>
     <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="B177" s="64"/>
-      <c r="C177" s="64"/>
-      <c r="D177" s="64"/>
-      <c r="E177" s="64"/>
-      <c r="F177" s="64"/>
-      <c r="G177" s="64"/>
-      <c r="H177" s="65"/>
+      <c r="A177" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B177" s="155"/>
+      <c r="C177" s="155"/>
+      <c r="D177" s="155"/>
+      <c r="E177" s="155"/>
+      <c r="F177" s="155"/>
+      <c r="G177" s="155"/>
+      <c r="H177" s="156"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="50"/>
@@ -5258,70 +5261,70 @@
       <c r="H180" s="57"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="137" t="s">
-        <v>127</v>
-      </c>
-      <c r="B181" s="138"/>
-      <c r="C181" s="142" t="str">
+      <c r="A181" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B181" s="70"/>
+      <c r="C181" s="73" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D181" s="138"/>
-      <c r="E181" s="138"/>
-      <c r="F181" s="138"/>
-      <c r="G181" s="143"/>
-      <c r="H181" s="151"/>
+      <c r="D181" s="70"/>
+      <c r="E181" s="70"/>
+      <c r="F181" s="70"/>
+      <c r="G181" s="74"/>
+      <c r="H181" s="71"/>
     </row>
     <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B182" s="128"/>
-      <c r="C182" s="144" t="str">
+      <c r="A182" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B182" s="60"/>
+      <c r="C182" s="75" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D182" s="145"/>
-      <c r="E182" s="145"/>
-      <c r="F182" s="145"/>
-      <c r="G182" s="146"/>
-      <c r="H182" s="151"/>
+      <c r="D182" s="76"/>
+      <c r="E182" s="76"/>
+      <c r="F182" s="76"/>
+      <c r="G182" s="77"/>
+      <c r="H182" s="71"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="127" t="s">
-        <v>129</v>
-      </c>
-      <c r="B183" s="128"/>
-      <c r="C183" s="147" t="str">
+      <c r="A183" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B183" s="60"/>
+      <c r="C183" s="78" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D183" s="128"/>
-      <c r="E183" s="128"/>
-      <c r="F183" s="128"/>
-      <c r="G183" s="148"/>
-      <c r="H183" s="151"/>
+      <c r="D183" s="60"/>
+      <c r="E183" s="60"/>
+      <c r="F183" s="60"/>
+      <c r="G183" s="79"/>
+      <c r="H183" s="71"/>
     </row>
     <row r="184" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B184" s="130"/>
-      <c r="C184" s="149" t="str">
+      <c r="A184" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B184" s="62"/>
+      <c r="C184" s="80" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D184" s="130"/>
-      <c r="E184" s="130"/>
-      <c r="F184" s="130"/>
-      <c r="G184" s="150"/>
-      <c r="H184" s="152"/>
+      <c r="D184" s="62"/>
+      <c r="E184" s="62"/>
+      <c r="F184" s="62"/>
+      <c r="G184" s="81"/>
+      <c r="H184" s="72"/>
     </row>
     <row r="185" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B185" s="132"/>
+      <c r="A185" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B185" s="64"/>
       <c r="C185" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5345,14 +5348,14 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="133"/>
-      <c r="B186" s="134"/>
-      <c r="C186" s="134"/>
-      <c r="D186" s="135"/>
-      <c r="E186" s="135"/>
-      <c r="F186" s="135"/>
-      <c r="G186" s="135"/>
-      <c r="H186" s="136"/>
+      <c r="A186" s="65"/>
+      <c r="B186" s="66"/>
+      <c r="C186" s="66"/>
+      <c r="D186" s="67"/>
+      <c r="E186" s="67"/>
+      <c r="F186" s="67"/>
+      <c r="G186" s="67"/>
+      <c r="H186" s="68"/>
     </row>
     <row r="187" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
@@ -5548,70 +5551,70 @@
       <c r="H207" s="58"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="137" t="s">
-        <v>127</v>
-      </c>
-      <c r="B208" s="138"/>
-      <c r="C208" s="142" t="str">
+      <c r="A208" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B208" s="70"/>
+      <c r="C208" s="73" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D208" s="138"/>
-      <c r="E208" s="138"/>
-      <c r="F208" s="138"/>
-      <c r="G208" s="143"/>
-      <c r="H208" s="139"/>
+      <c r="D208" s="70"/>
+      <c r="E208" s="70"/>
+      <c r="F208" s="70"/>
+      <c r="G208" s="74"/>
+      <c r="H208" s="82"/>
     </row>
     <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B209" s="128"/>
-      <c r="C209" s="144" t="str">
+      <c r="A209" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B209" s="60"/>
+      <c r="C209" s="75" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D209" s="145"/>
-      <c r="E209" s="145"/>
-      <c r="F209" s="145"/>
-      <c r="G209" s="146"/>
-      <c r="H209" s="140"/>
+      <c r="D209" s="76"/>
+      <c r="E209" s="76"/>
+      <c r="F209" s="76"/>
+      <c r="G209" s="77"/>
+      <c r="H209" s="83"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="127" t="s">
-        <v>129</v>
-      </c>
-      <c r="B210" s="128"/>
-      <c r="C210" s="147" t="str">
+      <c r="A210" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B210" s="60"/>
+      <c r="C210" s="78" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D210" s="128"/>
-      <c r="E210" s="128"/>
-      <c r="F210" s="128"/>
-      <c r="G210" s="148"/>
-      <c r="H210" s="140"/>
+      <c r="D210" s="60"/>
+      <c r="E210" s="60"/>
+      <c r="F210" s="60"/>
+      <c r="G210" s="79"/>
+      <c r="H210" s="83"/>
     </row>
     <row r="211" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B211" s="130"/>
-      <c r="C211" s="149" t="str">
+      <c r="A211" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B211" s="62"/>
+      <c r="C211" s="80" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D211" s="130"/>
-      <c r="E211" s="130"/>
-      <c r="F211" s="130"/>
-      <c r="G211" s="150"/>
-      <c r="H211" s="141"/>
+      <c r="D211" s="62"/>
+      <c r="E211" s="62"/>
+      <c r="F211" s="62"/>
+      <c r="G211" s="81"/>
+      <c r="H211" s="84"/>
     </row>
     <row r="212" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B212" s="132"/>
+      <c r="A212" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B212" s="64"/>
       <c r="C212" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5635,14 +5638,14 @@
       </c>
     </row>
     <row r="213" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="133"/>
-      <c r="B213" s="134"/>
-      <c r="C213" s="134"/>
-      <c r="D213" s="135"/>
-      <c r="E213" s="135"/>
-      <c r="F213" s="135"/>
-      <c r="G213" s="135"/>
-      <c r="H213" s="136"/>
+      <c r="A213" s="65"/>
+      <c r="B213" s="66"/>
+      <c r="C213" s="66"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
+      <c r="F213" s="67"/>
+      <c r="G213" s="67"/>
+      <c r="H213" s="68"/>
     </row>
     <row r="214" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
@@ -5836,124 +5839,112 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="H181:H184"/>
-    <mergeCell ref="C181:G181"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C183:G183"/>
-    <mergeCell ref="C184:G184"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:H213"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="H208:H211"/>
-    <mergeCell ref="C208:G208"/>
-    <mergeCell ref="C209:G209"/>
-    <mergeCell ref="C210:G210"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B23:H42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C56:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="A177:H177"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="H139:H142"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="C137:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="H97:H100"/>
@@ -5977,112 +5968,124 @@
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A101:E101"/>
     <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="H139:H142"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C140:G140"/>
-    <mergeCell ref="C141:G141"/>
-    <mergeCell ref="C142:G142"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="C137:H138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A175:E175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="A177:H177"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C56:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B21:H22"/>
+    <mergeCell ref="B23:H42"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:H213"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="H208:H211"/>
+    <mergeCell ref="C208:G208"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="H181:H184"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="C184:G184"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Compass.Wpf/JobCardEn.xlsx
+++ b/Compass.Wpf/JobCardEn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0032D8-A4D5-4D8D-BE14-B3AB94DD4ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DD0DF9-6ADA-42B6-A6C9-6BF90BD1EB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobCard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="171">
   <si>
     <t>Order Number 订单编号</t>
   </si>
@@ -623,6 +623,10 @@
   </si>
   <si>
     <t>Final Inspection</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.6 M1(KVI_FR_555)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +637,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-10409]yyyy/m/d"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1685,158 +1689,149 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1863,120 +1858,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -1989,10 +1870,133 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{2409072B-DE74-4AFE-9068-FB6263D77CF0}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2536,7 +2540,7 @@
       <selection activeCell="B23" sqref="B23:H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.375" style="1" bestFit="1" customWidth="1"/>
@@ -2549,99 +2553,99 @@
     <col min="9" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A3" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="89"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="129"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A4" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="90"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="130"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="92" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="90"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="130"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="106"/>
+      <c r="C6" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="91"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="131"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="106"/>
+      <c r="C7" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
@@ -2667,27 +2671,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="100" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="101"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="96"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="G9" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="103"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="126"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="25" t="s">
         <v>15</v>
       </c>
@@ -2697,50 +2701,50 @@
       <c r="C10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="96"/>
+      <c r="D10" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="100"/>
       <c r="F10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="105"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
+      <c r="H10" s="128"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="96"/>
+      <c r="D11" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="100"/>
       <c r="F11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="121">
         <v>43826</v>
       </c>
-      <c r="H11" s="98"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="H11" s="122"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="96"/>
+      <c r="D12" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="100"/>
       <c r="F12" s="24" t="s">
         <v>10</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="28" t="s">
         <v>15</v>
       </c>
@@ -2761,10 +2765,10 @@
       <c r="C13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="96"/>
+      <c r="D13" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="100"/>
       <c r="F13" s="24" t="s">
         <v>10</v>
       </c>
@@ -2773,7 +2777,7 @@
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
@@ -2783,10 +2787,10 @@
       <c r="C14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="96"/>
+      <c r="D14" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="100"/>
       <c r="F14" s="24" t="s">
         <v>10</v>
       </c>
@@ -2795,7 +2799,7 @@
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="29" t="s">
         <v>23</v>
       </c>
@@ -2805,10 +2809,10 @@
       <c r="C15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="96"/>
+      <c r="D15" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="100"/>
       <c r="F15" s="24" t="s">
         <v>10</v>
       </c>
@@ -2817,7 +2821,7 @@
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="22" t="s">
         <v>10</v>
       </c>
@@ -2843,11 +2847,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="109" t="s">
+    <row r="17" spans="1:8" ht="33">
+      <c r="A17" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="86"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="46" t="s">
         <v>25</v>
       </c>
@@ -2867,13 +2871,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="39" t="str">
-        <f>$C$5</f>
-        <v>71.6 M1</v>
+      <c r="B18" s="39" t="s">
+        <v>170</v>
       </c>
       <c r="C18" s="40" t="str">
         <f>$C$6</f>
@@ -2895,273 +2898,273 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="110" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="112"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="110" t="s">
+      <c r="B19" s="108"/>
+      <c r="C19" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="109"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="112"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="s">
+      <c r="B20" s="108"/>
+      <c r="C20" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="109"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1">
+      <c r="A21" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="116"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="114"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="158"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="158"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114" t="s">
+      <c r="B21" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="113"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="111"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="115"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="A23" s="111"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="117"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
+      <c r="A24" s="111"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="117"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
+      <c r="A25" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="158"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="158"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="158"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="117"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="A26" s="111"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="117"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="A27" s="111"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="117"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="A28" s="53"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="158"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="117"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="A29" s="53"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="158"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="117"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="A30" s="53"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="158"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="117"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1">
       <c r="A31" s="53"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="158"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="117"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="A32" s="54"/>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="158"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="117"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="A33" s="54"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="158"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="117"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1">
       <c r="A34" s="54"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="158"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="117"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1">
       <c r="A35" s="54"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="158"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="117"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1">
       <c r="A36" s="54"/>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="158"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="117"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" s="54"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="158"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="117"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1">
       <c r="A38" s="54"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="158"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="117"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1">
       <c r="A39" s="54"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="158"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="117"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1">
       <c r="A40" s="54"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="158"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="117"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1">
       <c r="A41" s="54"/>
-      <c r="B41" s="157"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="157"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="158"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="117"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1">
       <c r="A42" s="55"/>
-      <c r="B42" s="159"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="160"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="100">
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="119"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="104">
         <v>2</v>
       </c>
-      <c r="B43" s="96"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="106" t="s">
+      <c r="D43" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
       <c r="G43" s="41" t="s">
         <v>35</v>
       </c>
@@ -3169,205 +3172,205 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="85" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="96"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="107"/>
-      <c r="F44" s="108"/>
+      <c r="D44" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="102"/>
+      <c r="F44" s="103"/>
       <c r="G44" s="42"/>
       <c r="H44" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="85" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="96"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="107"/>
-      <c r="F45" s="108"/>
+      <c r="D45" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="102"/>
+      <c r="F45" s="103"/>
       <c r="G45" s="42"/>
       <c r="H45" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="85" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="96"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="107"/>
-      <c r="F46" s="108"/>
+      <c r="D46" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="102"/>
+      <c r="F46" s="103"/>
       <c r="G46" s="42"/>
       <c r="H46" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="85" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="96"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="107"/>
-      <c r="F47" s="108"/>
+      <c r="D47" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="102"/>
+      <c r="F47" s="103"/>
       <c r="G47" s="42"/>
       <c r="H47" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="85" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="96"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="107"/>
-      <c r="F48" s="108"/>
+      <c r="D48" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="102"/>
+      <c r="F48" s="103"/>
       <c r="G48" s="42"/>
       <c r="H48" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="85" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="96"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="107"/>
-      <c r="F49" s="108"/>
+      <c r="D49" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="102"/>
+      <c r="F49" s="103"/>
       <c r="G49" s="42"/>
       <c r="H49" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="85" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="96"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="107"/>
-      <c r="F50" s="108"/>
+      <c r="D50" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="102"/>
+      <c r="F50" s="103"/>
       <c r="G50" s="42"/>
       <c r="H50" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="85" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="96"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="107"/>
-      <c r="F51" s="108"/>
+      <c r="D51" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="102"/>
+      <c r="F51" s="103"/>
       <c r="G51" s="42"/>
       <c r="H51" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="85" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="96"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="107"/>
-      <c r="F52" s="108"/>
+      <c r="D52" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="102"/>
+      <c r="F52" s="103"/>
       <c r="G52" s="42"/>
       <c r="H52" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="85" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="96"/>
+      <c r="B53" s="100"/>
       <c r="C53" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="107"/>
-      <c r="F53" s="108"/>
+      <c r="D53" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="102"/>
+      <c r="F53" s="103"/>
       <c r="G53" s="42"/>
       <c r="H53" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="85" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="96"/>
+      <c r="B54" s="100"/>
       <c r="C54" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="107"/>
-      <c r="F54" s="108"/>
+      <c r="D54" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="102"/>
+      <c r="F54" s="103"/>
       <c r="G54" s="42"/>
       <c r="H54" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="22"/>
       <c r="B55" s="51"/>
       <c r="C55" s="22"/>
@@ -3377,94 +3380,94 @@
       <c r="G55" s="51"/>
       <c r="H55" s="22"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="16.5" customHeight="1">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="119" t="s">
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A58" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="129" t="str">
+      <c r="B58" s="74"/>
+      <c r="C58" s="82" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D58" s="130"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="126"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="119" t="s">
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="79"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A59" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="120"/>
-      <c r="C59" s="131" t="str">
+      <c r="B59" s="74"/>
+      <c r="C59" s="90" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D59" s="132"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="132"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="127"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="119" t="s">
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="80"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="120"/>
-      <c r="C60" s="131" t="str">
+      <c r="B60" s="74"/>
+      <c r="C60" s="90" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="127"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="121" t="s">
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="80"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="122"/>
-      <c r="C61" s="133" t="str">
+      <c r="B61" s="98"/>
+      <c r="C61" s="93" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
-      <c r="G61" s="134"/>
-      <c r="H61" s="128"/>
-    </row>
-    <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="123"/>
-      <c r="B62" s="123"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="81"/>
+    </row>
+    <row r="62" spans="1:8" ht="33">
+      <c r="A62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
       <c r="F62" s="45" t="s">
         <v>49</v>
       </c>
@@ -3475,26 +3478,26 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="124" t="s">
+    <row r="63" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A63" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="125" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
       <c r="F64" s="34" t="s">
         <v>10</v>
       </c>
@@ -3503,14 +3506,14 @@
       </c>
       <c r="H64" s="34"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="125" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="125"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
       <c r="F65" s="34" t="s">
         <v>10</v>
       </c>
@@ -3519,14 +3522,14 @@
       </c>
       <c r="H65" s="34"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="125" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
       <c r="F66" s="34" t="s">
         <v>10</v>
       </c>
@@ -3535,14 +3538,14 @@
       </c>
       <c r="H66" s="34"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="125" t="s">
+    <row r="67" spans="1:8">
+      <c r="A67" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="125"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="125"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
       <c r="F67" s="34" t="s">
         <v>10</v>
       </c>
@@ -3551,14 +3554,14 @@
       </c>
       <c r="H67" s="34"/>
     </row>
-    <row r="68" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="125" t="s">
+    <row r="68" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A68" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="125"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="125"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
       <c r="F68" s="34" t="s">
         <v>10</v>
       </c>
@@ -3567,28 +3570,28 @@
       </c>
       <c r="H68" s="34"/>
     </row>
-    <row r="69" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="124" t="s">
+    <row r="69" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A69" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="124"/>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33" t="s">
         <v>10</v>
       </c>
       <c r="H69" s="33"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="125" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="125"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="125"/>
-      <c r="E70" s="125"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
       <c r="F70" s="34" t="s">
         <v>10</v>
       </c>
@@ -3597,14 +3600,14 @@
       </c>
       <c r="H70" s="34"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="125" t="s">
+    <row r="71" spans="1:8">
+      <c r="A71" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="125"/>
-      <c r="C71" s="125"/>
-      <c r="D71" s="125"/>
-      <c r="E71" s="125"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
       <c r="F71" s="34" t="s">
         <v>10</v>
       </c>
@@ -3613,14 +3616,14 @@
       </c>
       <c r="H71" s="34"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="125" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="125"/>
-      <c r="C72" s="125"/>
-      <c r="D72" s="125"/>
-      <c r="E72" s="125"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
       <c r="F72" s="34" t="s">
         <v>10</v>
       </c>
@@ -3629,14 +3632,14 @@
       </c>
       <c r="H72" s="34"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="125" t="s">
+    <row r="73" spans="1:8">
+      <c r="A73" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="125"/>
-      <c r="C73" s="125"/>
-      <c r="D73" s="125"/>
-      <c r="E73" s="125"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
       <c r="F73" s="34" t="s">
         <v>10</v>
       </c>
@@ -3645,14 +3648,14 @@
       </c>
       <c r="H73" s="34"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="125" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="125"/>
-      <c r="C74" s="125"/>
-      <c r="D74" s="125"/>
-      <c r="E74" s="125"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
       <c r="F74" s="34" t="s">
         <v>10</v>
       </c>
@@ -3661,14 +3664,14 @@
       </c>
       <c r="H74" s="34"/>
     </row>
-    <row r="75" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="125" t="s">
+    <row r="75" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A75" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="125"/>
-      <c r="E75" s="125"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
       <c r="F75" s="34" t="s">
         <v>10</v>
       </c>
@@ -3677,28 +3680,28 @@
       </c>
       <c r="H75" s="34"/>
     </row>
-    <row r="76" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="124" t="s">
+    <row r="76" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A76" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="124"/>
-      <c r="C76" s="124"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="96"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33" t="s">
         <v>10</v>
       </c>
       <c r="H76" s="33"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="125" t="s">
+    <row r="77" spans="1:8">
+      <c r="A77" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
-      <c r="E77" s="125"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
       <c r="F77" s="34" t="s">
         <v>10</v>
       </c>
@@ -3707,14 +3710,14 @@
       </c>
       <c r="H77" s="34"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="125" t="s">
+    <row r="78" spans="1:8">
+      <c r="A78" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="125"/>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
-      <c r="E78" s="125"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
       <c r="F78" s="34" t="s">
         <v>10</v>
       </c>
@@ -3723,14 +3726,14 @@
       </c>
       <c r="H78" s="34"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="125" t="s">
+    <row r="79" spans="1:8">
+      <c r="A79" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
-      <c r="E79" s="125"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
       <c r="F79" s="34" t="s">
         <v>10</v>
       </c>
@@ -3739,14 +3742,14 @@
       </c>
       <c r="H79" s="34"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="125" t="s">
+    <row r="80" spans="1:8">
+      <c r="A80" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="125"/>
-      <c r="C80" s="125"/>
-      <c r="D80" s="125"/>
-      <c r="E80" s="125"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="85"/>
       <c r="F80" s="34" t="s">
         <v>10</v>
       </c>
@@ -3755,28 +3758,28 @@
       </c>
       <c r="H80" s="34"/>
     </row>
-    <row r="81" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="124" t="s">
+    <row r="81" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A81" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33" t="s">
         <v>10</v>
       </c>
       <c r="H81" s="33"/>
     </row>
-    <row r="82" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="125" t="s">
+    <row r="82" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A82" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="125"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="125"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
       <c r="F82" s="34" t="s">
         <v>10</v>
       </c>
@@ -3785,14 +3788,14 @@
       </c>
       <c r="H82" s="34"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="125" t="s">
+    <row r="83" spans="1:8">
+      <c r="A83" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="125"/>
-      <c r="C83" s="125"/>
-      <c r="D83" s="125"/>
-      <c r="E83" s="125"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
       <c r="F83" s="34" t="s">
         <v>10</v>
       </c>
@@ -3801,14 +3804,14 @@
       </c>
       <c r="H83" s="34"/>
     </row>
-    <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="125" t="s">
+    <row r="84" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A84" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B84" s="125"/>
-      <c r="C84" s="125"/>
-      <c r="D84" s="125"/>
-      <c r="E84" s="125"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
       <c r="F84" s="34" t="s">
         <v>10</v>
       </c>
@@ -3817,14 +3820,14 @@
       </c>
       <c r="H84" s="34"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="125" t="s">
+    <row r="85" spans="1:8">
+      <c r="A85" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B85" s="125"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="125"/>
-      <c r="E85" s="125"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
       <c r="F85" s="34" t="s">
         <v>10</v>
       </c>
@@ -3833,14 +3836,14 @@
       </c>
       <c r="H85" s="34"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="125" t="s">
+    <row r="86" spans="1:8">
+      <c r="A86" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
       <c r="F86" s="34" t="s">
         <v>10</v>
       </c>
@@ -3849,14 +3852,14 @@
       </c>
       <c r="H86" s="34"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="125" t="s">
+    <row r="87" spans="1:8">
+      <c r="A87" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
       <c r="F87" s="34" t="s">
         <v>10</v>
       </c>
@@ -3865,14 +3868,14 @@
       </c>
       <c r="H87" s="34"/>
     </row>
-    <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="125" t="s">
+    <row r="88" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A88" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B88" s="125"/>
-      <c r="C88" s="125"/>
-      <c r="D88" s="125"/>
-      <c r="E88" s="125"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
       <c r="F88" s="34" t="s">
         <v>10</v>
       </c>
@@ -3881,14 +3884,14 @@
       </c>
       <c r="H88" s="34"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="125" t="s">
+    <row r="89" spans="1:8">
+      <c r="A89" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B89" s="125"/>
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
       <c r="F89" s="34" t="s">
         <v>10</v>
       </c>
@@ -3897,14 +3900,14 @@
       </c>
       <c r="H89" s="34"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="125" t="s">
+    <row r="90" spans="1:8">
+      <c r="A90" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="125"/>
-      <c r="C90" s="125"/>
-      <c r="D90" s="125"/>
-      <c r="E90" s="125"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
       <c r="F90" s="34" t="s">
         <v>10</v>
       </c>
@@ -3913,14 +3916,14 @@
       </c>
       <c r="H90" s="34"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="125" t="s">
+    <row r="91" spans="1:8">
+      <c r="A91" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="125"/>
-      <c r="C91" s="125"/>
-      <c r="D91" s="125"/>
-      <c r="E91" s="125"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
       <c r="F91" s="34" t="s">
         <v>10</v>
       </c>
@@ -3929,14 +3932,14 @@
       </c>
       <c r="H91" s="34"/>
     </row>
-    <row r="92" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="125" t="s">
+    <row r="92" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A92" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="125"/>
-      <c r="C92" s="125"/>
-      <c r="D92" s="125"/>
-      <c r="E92" s="125"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
       <c r="F92" s="34" t="s">
         <v>10</v>
       </c>
@@ -3945,14 +3948,14 @@
       </c>
       <c r="H92" s="34"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="125" t="s">
+    <row r="93" spans="1:8">
+      <c r="A93" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="125"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="125"/>
-      <c r="E93" s="125"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
       <c r="F93" s="34" t="s">
         <v>10</v>
       </c>
@@ -3961,7 +3964,7 @@
       </c>
       <c r="H93" s="34"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="52"/>
       <c r="B94" s="52"/>
       <c r="C94" s="52"/>
@@ -3971,94 +3974,94 @@
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
     </row>
-    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="16.5" customHeight="1">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
-      <c r="C95" s="87" t="s">
+      <c r="C95" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="D95" s="87"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="87"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="88"/>
-      <c r="G96" s="88"/>
-      <c r="H96" s="88"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="119" t="s">
+      <c r="C96" s="89"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="89"/>
+    </row>
+    <row r="97" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A97" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="120"/>
-      <c r="C97" s="129" t="str">
+      <c r="B97" s="74"/>
+      <c r="C97" s="82" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D97" s="130"/>
-      <c r="E97" s="130"/>
-      <c r="F97" s="130"/>
-      <c r="G97" s="135"/>
-      <c r="H97" s="126"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="119" t="s">
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="79"/>
+    </row>
+    <row r="98" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A98" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="120"/>
-      <c r="C98" s="131" t="str">
+      <c r="B98" s="74"/>
+      <c r="C98" s="90" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D98" s="132"/>
-      <c r="E98" s="132"/>
-      <c r="F98" s="132"/>
-      <c r="G98" s="136"/>
-      <c r="H98" s="127"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="119" t="s">
+      <c r="D98" s="91"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="80"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="120"/>
-      <c r="C99" s="131" t="str">
+      <c r="B99" s="74"/>
+      <c r="C99" s="90" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D99" s="132"/>
-      <c r="E99" s="132"/>
-      <c r="F99" s="132"/>
-      <c r="G99" s="136"/>
-      <c r="H99" s="127"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="121" t="s">
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="80"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="122"/>
-      <c r="C100" s="133" t="str">
+      <c r="B100" s="98"/>
+      <c r="C100" s="93" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D100" s="134"/>
-      <c r="E100" s="134"/>
-      <c r="F100" s="134"/>
-      <c r="G100" s="137"/>
-      <c r="H100" s="128"/>
-    </row>
-    <row r="101" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A101" s="123"/>
-      <c r="B101" s="123"/>
-      <c r="C101" s="123"/>
-      <c r="D101" s="123"/>
-      <c r="E101" s="123"/>
+      <c r="D100" s="94"/>
+      <c r="E100" s="94"/>
+      <c r="F100" s="94"/>
+      <c r="G100" s="95"/>
+      <c r="H100" s="81"/>
+    </row>
+    <row r="101" spans="1:8" ht="33">
+      <c r="A101" s="78"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
       <c r="F101" s="45" t="s">
         <v>49</v>
       </c>
@@ -4069,28 +4072,28 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="124" t="s">
+    <row r="102" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A102" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B102" s="124"/>
-      <c r="C102" s="124"/>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
       <c r="F102" s="33"/>
       <c r="G102" s="33" t="s">
         <v>10</v>
       </c>
       <c r="H102" s="33"/>
     </row>
-    <row r="103" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="125" t="s">
+    <row r="103" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A103" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B103" s="125"/>
-      <c r="C103" s="125"/>
-      <c r="D103" s="125"/>
-      <c r="E103" s="125"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
       <c r="F103" s="34" t="s">
         <v>10</v>
       </c>
@@ -4099,14 +4102,14 @@
       </c>
       <c r="H103" s="34"/>
     </row>
-    <row r="104" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="125" t="s">
+    <row r="104" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A104" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B104" s="125"/>
-      <c r="C104" s="125"/>
-      <c r="D104" s="125"/>
-      <c r="E104" s="125"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
       <c r="F104" s="34" t="s">
         <v>10</v>
       </c>
@@ -4115,14 +4118,14 @@
       </c>
       <c r="H104" s="34"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="125" t="s">
+    <row r="105" spans="1:8">
+      <c r="A105" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="125"/>
-      <c r="C105" s="125"/>
-      <c r="D105" s="125"/>
-      <c r="E105" s="125"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
       <c r="F105" s="34" t="s">
         <v>10</v>
       </c>
@@ -4131,28 +4134,28 @@
       </c>
       <c r="H105" s="34"/>
     </row>
-    <row r="106" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="124" t="s">
+    <row r="106" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A106" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="B106" s="124"/>
-      <c r="C106" s="124"/>
-      <c r="D106" s="124"/>
-      <c r="E106" s="124"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33" t="s">
         <v>10</v>
       </c>
       <c r="H106" s="33"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="125" t="s">
+    <row r="107" spans="1:8">
+      <c r="A107" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B107" s="125"/>
-      <c r="C107" s="125"/>
-      <c r="D107" s="125"/>
-      <c r="E107" s="125"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
       <c r="F107" s="34" t="s">
         <v>10</v>
       </c>
@@ -4161,14 +4164,14 @@
       </c>
       <c r="H107" s="34"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="125" t="s">
+    <row r="108" spans="1:8">
+      <c r="A108" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B108" s="125"/>
-      <c r="C108" s="125"/>
-      <c r="D108" s="125"/>
-      <c r="E108" s="125"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
       <c r="F108" s="34" t="s">
         <v>10</v>
       </c>
@@ -4177,14 +4180,14 @@
       </c>
       <c r="H108" s="34"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="125" t="s">
+    <row r="109" spans="1:8">
+      <c r="A109" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B109" s="125"/>
-      <c r="C109" s="125"/>
-      <c r="D109" s="125"/>
-      <c r="E109" s="125"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="85"/>
       <c r="F109" s="34" t="s">
         <v>10</v>
       </c>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="H109" s="34"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="125" t="s">
+    <row r="110" spans="1:8">
+      <c r="A110" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="B110" s="125"/>
-      <c r="C110" s="125"/>
-      <c r="D110" s="125"/>
-      <c r="E110" s="125"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
       <c r="F110" s="34" t="s">
         <v>10</v>
       </c>
@@ -4209,14 +4212,14 @@
       </c>
       <c r="H110" s="34"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="125" t="s">
+    <row r="111" spans="1:8">
+      <c r="A111" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="B111" s="125"/>
-      <c r="C111" s="125"/>
-      <c r="D111" s="125"/>
-      <c r="E111" s="125"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
       <c r="F111" s="34" t="s">
         <v>10</v>
       </c>
@@ -4225,14 +4228,14 @@
       </c>
       <c r="H111" s="34"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="125" t="s">
+    <row r="112" spans="1:8">
+      <c r="A112" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B112" s="125"/>
-      <c r="C112" s="125"/>
-      <c r="D112" s="125"/>
-      <c r="E112" s="125"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
       <c r="F112" s="34" t="s">
         <v>10</v>
       </c>
@@ -4241,14 +4244,14 @@
       </c>
       <c r="H112" s="34"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="125" t="s">
+    <row r="113" spans="1:8">
+      <c r="A113" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B113" s="125"/>
-      <c r="C113" s="125"/>
-      <c r="D113" s="125"/>
-      <c r="E113" s="125"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
       <c r="F113" s="34" t="s">
         <v>10</v>
       </c>
@@ -4257,14 +4260,14 @@
       </c>
       <c r="H113" s="34"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="125" t="s">
+    <row r="114" spans="1:8">
+      <c r="A114" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="B114" s="125"/>
-      <c r="C114" s="125"/>
-      <c r="D114" s="125"/>
-      <c r="E114" s="125"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
       <c r="F114" s="34" t="s">
         <v>10</v>
       </c>
@@ -4273,14 +4276,14 @@
       </c>
       <c r="H114" s="34"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="125" t="s">
+    <row r="115" spans="1:8">
+      <c r="A115" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="B115" s="125"/>
-      <c r="C115" s="125"/>
-      <c r="D115" s="125"/>
-      <c r="E115" s="125"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
       <c r="F115" s="34" t="s">
         <v>10</v>
       </c>
@@ -4289,14 +4292,14 @@
       </c>
       <c r="H115" s="34"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="125" t="s">
+    <row r="116" spans="1:8">
+      <c r="A116" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="B116" s="125"/>
-      <c r="C116" s="125"/>
-      <c r="D116" s="125"/>
-      <c r="E116" s="125"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
       <c r="F116" s="34" t="s">
         <v>10</v>
       </c>
@@ -4305,14 +4308,14 @@
       </c>
       <c r="H116" s="34"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="125" t="s">
+    <row r="117" spans="1:8">
+      <c r="A117" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="B117" s="125"/>
-      <c r="C117" s="125"/>
-      <c r="D117" s="125"/>
-      <c r="E117" s="125"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
       <c r="F117" s="34" t="s">
         <v>10</v>
       </c>
@@ -4321,14 +4324,14 @@
       </c>
       <c r="H117" s="34"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="125" t="s">
+    <row r="118" spans="1:8">
+      <c r="A118" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B118" s="125"/>
-      <c r="C118" s="125"/>
-      <c r="D118" s="125"/>
-      <c r="E118" s="125"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
       <c r="F118" s="34" t="s">
         <v>10</v>
       </c>
@@ -4337,14 +4340,14 @@
       </c>
       <c r="H118" s="34"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="125" t="s">
+    <row r="119" spans="1:8">
+      <c r="A119" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B119" s="125"/>
-      <c r="C119" s="125"/>
-      <c r="D119" s="125"/>
-      <c r="E119" s="125"/>
+      <c r="B119" s="85"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="85"/>
       <c r="F119" s="34" t="s">
         <v>10</v>
       </c>
@@ -4353,14 +4356,14 @@
       </c>
       <c r="H119" s="34"/>
     </row>
-    <row r="120" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="125" t="s">
+    <row r="120" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A120" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B120" s="125"/>
-      <c r="C120" s="125"/>
-      <c r="D120" s="125"/>
-      <c r="E120" s="125"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="85"/>
       <c r="F120" s="34" t="s">
         <v>10</v>
       </c>
@@ -4369,14 +4372,14 @@
       </c>
       <c r="H120" s="34"/>
     </row>
-    <row r="121" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="125" t="s">
+    <row r="121" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A121" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="B121" s="125"/>
-      <c r="C121" s="125"/>
-      <c r="D121" s="125"/>
-      <c r="E121" s="125"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
       <c r="F121" s="34" t="s">
         <v>10</v>
       </c>
@@ -4385,14 +4388,14 @@
       </c>
       <c r="H121" s="34"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="125" t="s">
+    <row r="122" spans="1:8">
+      <c r="A122" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B122" s="125"/>
-      <c r="C122" s="125"/>
-      <c r="D122" s="125"/>
-      <c r="E122" s="125"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
       <c r="F122" s="34" t="s">
         <v>10</v>
       </c>
@@ -4401,14 +4404,14 @@
       </c>
       <c r="H122" s="34"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="125" t="s">
+    <row r="123" spans="1:8">
+      <c r="A123" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="B123" s="125"/>
-      <c r="C123" s="125"/>
-      <c r="D123" s="125"/>
-      <c r="E123" s="125"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
       <c r="F123" s="34" t="s">
         <v>10</v>
       </c>
@@ -4417,14 +4420,14 @@
       </c>
       <c r="H123" s="34"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="125" t="s">
+    <row r="124" spans="1:8">
+      <c r="A124" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="B124" s="125"/>
-      <c r="C124" s="125"/>
-      <c r="D124" s="125"/>
-      <c r="E124" s="125"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
       <c r="F124" s="34" t="s">
         <v>10</v>
       </c>
@@ -4433,14 +4436,14 @@
       </c>
       <c r="H124" s="34"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="125" t="s">
+    <row r="125" spans="1:8">
+      <c r="A125" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="B125" s="125"/>
-      <c r="C125" s="125"/>
-      <c r="D125" s="125"/>
-      <c r="E125" s="125"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
       <c r="F125" s="34" t="s">
         <v>10</v>
       </c>
@@ -4449,14 +4452,14 @@
       </c>
       <c r="H125" s="34"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="125" t="s">
+    <row r="126" spans="1:8">
+      <c r="A126" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="125"/>
-      <c r="C126" s="125"/>
-      <c r="D126" s="125"/>
-      <c r="E126" s="125"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="85"/>
+      <c r="D126" s="85"/>
+      <c r="E126" s="85"/>
       <c r="F126" s="34" t="s">
         <v>10</v>
       </c>
@@ -4465,14 +4468,14 @@
       </c>
       <c r="H126" s="34"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="125" t="s">
+    <row r="127" spans="1:8">
+      <c r="A127" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="B127" s="125"/>
-      <c r="C127" s="125"/>
-      <c r="D127" s="125"/>
-      <c r="E127" s="125"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
       <c r="F127" s="34" t="s">
         <v>10</v>
       </c>
@@ -4481,14 +4484,14 @@
       </c>
       <c r="H127" s="34"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="125" t="s">
+    <row r="128" spans="1:8">
+      <c r="A128" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="B128" s="125"/>
-      <c r="C128" s="125"/>
-      <c r="D128" s="125"/>
-      <c r="E128" s="125"/>
+      <c r="B128" s="85"/>
+      <c r="C128" s="85"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
       <c r="F128" s="34" t="s">
         <v>10</v>
       </c>
@@ -4497,14 +4500,14 @@
       </c>
       <c r="H128" s="34"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="125" t="s">
+    <row r="129" spans="1:8">
+      <c r="A129" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="B129" s="125"/>
-      <c r="C129" s="125"/>
-      <c r="D129" s="125"/>
-      <c r="E129" s="125"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
       <c r="F129" s="34" t="s">
         <v>10</v>
       </c>
@@ -4513,14 +4516,14 @@
       </c>
       <c r="H129" s="34"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="125" t="s">
+    <row r="130" spans="1:8">
+      <c r="A130" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="B130" s="125"/>
-      <c r="C130" s="125"/>
-      <c r="D130" s="125"/>
-      <c r="E130" s="125"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="85"/>
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
       <c r="F130" s="34" t="s">
         <v>10</v>
       </c>
@@ -4529,14 +4532,14 @@
       </c>
       <c r="H130" s="34"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="125" t="s">
+    <row r="131" spans="1:8">
+      <c r="A131" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="125"/>
-      <c r="C131" s="125"/>
-      <c r="D131" s="125"/>
-      <c r="E131" s="125"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="85"/>
       <c r="F131" s="34" t="s">
         <v>10</v>
       </c>
@@ -4545,14 +4548,14 @@
       </c>
       <c r="H131" s="34"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="125" t="s">
+    <row r="132" spans="1:8">
+      <c r="A132" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="125"/>
-      <c r="C132" s="125"/>
-      <c r="D132" s="125"/>
-      <c r="E132" s="125"/>
+      <c r="B132" s="85"/>
+      <c r="C132" s="85"/>
+      <c r="D132" s="85"/>
+      <c r="E132" s="85"/>
       <c r="F132" s="34" t="s">
         <v>10</v>
       </c>
@@ -4561,14 +4564,14 @@
       </c>
       <c r="H132" s="34"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="125" t="s">
+    <row r="133" spans="1:8">
+      <c r="A133" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="125"/>
-      <c r="C133" s="125"/>
-      <c r="D133" s="125"/>
-      <c r="E133" s="125"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="85"/>
+      <c r="E133" s="85"/>
       <c r="F133" s="34" t="s">
         <v>10</v>
       </c>
@@ -4577,14 +4580,14 @@
       </c>
       <c r="H133" s="34"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="125" t="s">
+    <row r="134" spans="1:8">
+      <c r="A134" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="B134" s="125"/>
-      <c r="C134" s="125"/>
-      <c r="D134" s="125"/>
-      <c r="E134" s="125"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="85"/>
+      <c r="D134" s="85"/>
+      <c r="E134" s="85"/>
       <c r="F134" s="34" t="s">
         <v>10</v>
       </c>
@@ -4593,19 +4596,19 @@
       </c>
       <c r="H134" s="34"/>
     </row>
-    <row r="135" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="138" t="s">
+    <row r="135" spans="1:8" ht="45.95" customHeight="1">
+      <c r="A135" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="B135" s="138"/>
-      <c r="C135" s="139"/>
-      <c r="D135" s="139"/>
-      <c r="E135" s="139"/>
-      <c r="F135" s="139"/>
-      <c r="G135" s="139"/>
-      <c r="H135" s="139"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B135" s="86"/>
+      <c r="C135" s="87"/>
+      <c r="D135" s="87"/>
+      <c r="E135" s="87"/>
+      <c r="F135" s="87"/>
+      <c r="G135" s="87"/>
+      <c r="H135" s="87"/>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="50"/>
       <c r="B136" s="50"/>
       <c r="C136" s="51"/>
@@ -4615,639 +4618,639 @@
       <c r="G136" s="51"/>
       <c r="H136" s="51"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
-      <c r="C137" s="87" t="s">
+      <c r="C137" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D137" s="87"/>
-      <c r="E137" s="87"/>
-      <c r="F137" s="87"/>
-      <c r="G137" s="87"/>
-      <c r="H137" s="87"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D137" s="88"/>
+      <c r="E137" s="88"/>
+      <c r="F137" s="88"/>
+      <c r="G137" s="88"/>
+      <c r="H137" s="88"/>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
-      <c r="C138" s="88"/>
-      <c r="D138" s="88"/>
-      <c r="E138" s="88"/>
-      <c r="F138" s="88"/>
-      <c r="G138" s="88"/>
-      <c r="H138" s="88"/>
-    </row>
-    <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="119" t="s">
+      <c r="C138" s="89"/>
+      <c r="D138" s="89"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="89"/>
+      <c r="G138" s="89"/>
+      <c r="H138" s="89"/>
+    </row>
+    <row r="139" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A139" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="B139" s="120"/>
-      <c r="C139" s="129" t="str">
+      <c r="B139" s="74"/>
+      <c r="C139" s="82" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D139" s="130"/>
-      <c r="E139" s="130"/>
-      <c r="F139" s="130"/>
-      <c r="G139" s="135"/>
-      <c r="H139" s="126"/>
-    </row>
-    <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="119" t="s">
+      <c r="D139" s="83"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="84"/>
+      <c r="H139" s="79"/>
+    </row>
+    <row r="140" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A140" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="B140" s="120"/>
-      <c r="C140" s="129" t="str">
+      <c r="B140" s="74"/>
+      <c r="C140" s="82" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D140" s="130"/>
-      <c r="E140" s="130"/>
-      <c r="F140" s="130"/>
-      <c r="G140" s="135"/>
-      <c r="H140" s="127"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="119" t="s">
+      <c r="D140" s="83"/>
+      <c r="E140" s="83"/>
+      <c r="F140" s="83"/>
+      <c r="G140" s="84"/>
+      <c r="H140" s="80"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="B141" s="120"/>
-      <c r="C141" s="129" t="str">
+      <c r="B141" s="74"/>
+      <c r="C141" s="82" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D141" s="130"/>
-      <c r="E141" s="130"/>
-      <c r="F141" s="130"/>
-      <c r="G141" s="135"/>
-      <c r="H141" s="127"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="119" t="s">
+      <c r="D141" s="83"/>
+      <c r="E141" s="83"/>
+      <c r="F141" s="83"/>
+      <c r="G141" s="84"/>
+      <c r="H141" s="80"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B142" s="120"/>
-      <c r="C142" s="129" t="str">
+      <c r="B142" s="74"/>
+      <c r="C142" s="82" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D142" s="130"/>
-      <c r="E142" s="130"/>
-      <c r="F142" s="130"/>
-      <c r="G142" s="135"/>
-      <c r="H142" s="128"/>
-    </row>
-    <row r="143" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="148" t="s">
+      <c r="D142" s="83"/>
+      <c r="E142" s="83"/>
+      <c r="F142" s="83"/>
+      <c r="G142" s="84"/>
+      <c r="H142" s="81"/>
+    </row>
+    <row r="143" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A143" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="B143" s="149"/>
-      <c r="C143" s="148" t="s">
+      <c r="B143" s="76"/>
+      <c r="C143" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="D143" s="150"/>
-      <c r="E143" s="150"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
       <c r="F143" s="35"/>
-      <c r="G143" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="H143" s="123"/>
-    </row>
-    <row r="144" spans="1:8" s="37" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="140" t="s">
+      <c r="G143" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="78"/>
+    </row>
+    <row r="144" spans="1:8" s="37" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A144" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="B144" s="141"/>
-      <c r="C144" s="141"/>
-      <c r="D144" s="141"/>
-      <c r="E144" s="142"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="71"/>
       <c r="F144" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="G144" s="143" t="s">
+      <c r="G144" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="H144" s="143"/>
-    </row>
-    <row r="145" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="144" t="s">
+      <c r="H144" s="72"/>
+    </row>
+    <row r="145" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A145" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B145" s="145"/>
-      <c r="C145" s="145"/>
-      <c r="D145" s="145"/>
-      <c r="E145" s="146"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="61"/>
       <c r="F145" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G145" s="147" t="s">
+      <c r="G145" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H145" s="147"/>
-    </row>
-    <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="144" t="s">
+      <c r="H145" s="62"/>
+    </row>
+    <row r="146" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A146" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="B146" s="145"/>
-      <c r="C146" s="145"/>
-      <c r="D146" s="145"/>
-      <c r="E146" s="146"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="61"/>
       <c r="F146" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G146" s="147" t="s">
+      <c r="G146" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H146" s="147"/>
-    </row>
-    <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="144" t="s">
+      <c r="H146" s="62"/>
+    </row>
+    <row r="147" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A147" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B147" s="145"/>
-      <c r="C147" s="145"/>
-      <c r="D147" s="145"/>
-      <c r="E147" s="146"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="61"/>
       <c r="F147" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G147" s="147" t="s">
+      <c r="G147" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H147" s="147"/>
-    </row>
-    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="144" t="s">
+      <c r="H147" s="62"/>
+    </row>
+    <row r="148" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A148" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="B148" s="145"/>
-      <c r="C148" s="145"/>
-      <c r="D148" s="145"/>
-      <c r="E148" s="146"/>
+      <c r="B148" s="60"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="61"/>
       <c r="F148" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G148" s="147" t="s">
+      <c r="G148" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H148" s="147"/>
-    </row>
-    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="144" t="s">
+      <c r="H148" s="62"/>
+    </row>
+    <row r="149" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A149" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="145"/>
-      <c r="C149" s="145"/>
-      <c r="D149" s="145"/>
-      <c r="E149" s="146"/>
+      <c r="B149" s="60"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="61"/>
       <c r="F149" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G149" s="147" t="s">
+      <c r="G149" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H149" s="147"/>
-    </row>
-    <row r="150" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="144" t="s">
+      <c r="H149" s="62"/>
+    </row>
+    <row r="150" spans="1:8" ht="30" customHeight="1">
+      <c r="A150" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="B150" s="145"/>
-      <c r="C150" s="145"/>
-      <c r="D150" s="145"/>
-      <c r="E150" s="146"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="61"/>
       <c r="F150" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G150" s="147" t="s">
+      <c r="G150" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H150" s="147"/>
-    </row>
-    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="144" t="s">
+      <c r="H150" s="62"/>
+    </row>
+    <row r="151" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A151" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B151" s="145"/>
-      <c r="C151" s="145"/>
-      <c r="D151" s="145"/>
-      <c r="E151" s="146"/>
+      <c r="B151" s="60"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="61"/>
       <c r="F151" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G151" s="147" t="s">
+      <c r="G151" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H151" s="147"/>
-    </row>
-    <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="144" t="s">
+      <c r="H151" s="62"/>
+    </row>
+    <row r="152" spans="1:8" ht="30" customHeight="1">
+      <c r="A152" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="145"/>
-      <c r="C152" s="145"/>
-      <c r="D152" s="145"/>
-      <c r="E152" s="146"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="60"/>
+      <c r="E152" s="61"/>
       <c r="F152" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G152" s="147" t="s">
+      <c r="G152" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H152" s="147"/>
-    </row>
-    <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="144" t="s">
+      <c r="H152" s="62"/>
+    </row>
+    <row r="153" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A153" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="145"/>
-      <c r="C153" s="145"/>
-      <c r="D153" s="145"/>
-      <c r="E153" s="146"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="61"/>
       <c r="F153" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G153" s="147" t="s">
+      <c r="G153" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H153" s="147"/>
-    </row>
-    <row r="154" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="144" t="s">
+      <c r="H153" s="62"/>
+    </row>
+    <row r="154" spans="1:8" ht="30" customHeight="1">
+      <c r="A154" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="145"/>
-      <c r="C154" s="145"/>
-      <c r="D154" s="145"/>
-      <c r="E154" s="146"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="61"/>
       <c r="F154" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G154" s="147" t="s">
+      <c r="G154" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H154" s="147"/>
-    </row>
-    <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="144" t="s">
+      <c r="H154" s="62"/>
+    </row>
+    <row r="155" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A155" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="145"/>
-      <c r="C155" s="145"/>
-      <c r="D155" s="145"/>
-      <c r="E155" s="146"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="61"/>
       <c r="F155" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G155" s="147" t="s">
+      <c r="G155" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H155" s="147"/>
-    </row>
-    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="144" t="s">
+      <c r="H155" s="62"/>
+    </row>
+    <row r="156" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A156" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B156" s="145"/>
-      <c r="C156" s="145"/>
-      <c r="D156" s="145"/>
-      <c r="E156" s="146"/>
+      <c r="B156" s="60"/>
+      <c r="C156" s="60"/>
+      <c r="D156" s="60"/>
+      <c r="E156" s="61"/>
       <c r="F156" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G156" s="147" t="s">
+      <c r="G156" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H156" s="147"/>
-    </row>
-    <row r="157" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="144" t="s">
+      <c r="H156" s="62"/>
+    </row>
+    <row r="157" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A157" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B157" s="145"/>
-      <c r="C157" s="145"/>
-      <c r="D157" s="145"/>
-      <c r="E157" s="146"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="60"/>
+      <c r="D157" s="60"/>
+      <c r="E157" s="61"/>
       <c r="F157" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G157" s="147" t="s">
+      <c r="G157" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H157" s="147"/>
-    </row>
-    <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="144" t="s">
+      <c r="H157" s="62"/>
+    </row>
+    <row r="158" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A158" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="B158" s="145"/>
-      <c r="C158" s="145"/>
-      <c r="D158" s="145"/>
-      <c r="E158" s="146"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="60"/>
+      <c r="D158" s="60"/>
+      <c r="E158" s="61"/>
       <c r="F158" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G158" s="147" t="s">
+      <c r="G158" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H158" s="147"/>
-    </row>
-    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="144" t="s">
+      <c r="H158" s="62"/>
+    </row>
+    <row r="159" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A159" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B159" s="145"/>
-      <c r="C159" s="145"/>
-      <c r="D159" s="145"/>
-      <c r="E159" s="146"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="60"/>
+      <c r="E159" s="61"/>
       <c r="F159" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G159" s="147" t="s">
+      <c r="G159" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H159" s="147"/>
-    </row>
-    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="144" t="s">
+      <c r="H159" s="62"/>
+    </row>
+    <row r="160" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A160" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="145"/>
-      <c r="C160" s="145"/>
-      <c r="D160" s="145"/>
-      <c r="E160" s="146"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="61"/>
       <c r="F160" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G160" s="147" t="s">
+      <c r="G160" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H160" s="147"/>
-    </row>
-    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="144" t="s">
+      <c r="H160" s="62"/>
+    </row>
+    <row r="161" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A161" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B161" s="145"/>
-      <c r="C161" s="145"/>
-      <c r="D161" s="145"/>
-      <c r="E161" s="146"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="60"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="61"/>
       <c r="F161" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G161" s="147" t="s">
+      <c r="G161" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H161" s="147"/>
-    </row>
-    <row r="162" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="144" t="s">
+      <c r="H161" s="62"/>
+    </row>
+    <row r="162" spans="1:8" ht="30" customHeight="1">
+      <c r="A162" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B162" s="145"/>
-      <c r="C162" s="145"/>
-      <c r="D162" s="145"/>
-      <c r="E162" s="146"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="60"/>
+      <c r="E162" s="61"/>
       <c r="F162" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G162" s="147" t="s">
+      <c r="G162" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H162" s="147"/>
-    </row>
-    <row r="163" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="144" t="s">
+      <c r="H162" s="62"/>
+    </row>
+    <row r="163" spans="1:8" ht="30" customHeight="1">
+      <c r="A163" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B163" s="145"/>
-      <c r="C163" s="145"/>
-      <c r="D163" s="145"/>
-      <c r="E163" s="146"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="60"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="61"/>
       <c r="F163" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G163" s="147" t="s">
+      <c r="G163" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H163" s="147"/>
-    </row>
-    <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="144" t="s">
+      <c r="H163" s="62"/>
+    </row>
+    <row r="164" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A164" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B164" s="145"/>
-      <c r="C164" s="145"/>
-      <c r="D164" s="145"/>
-      <c r="E164" s="146"/>
+      <c r="B164" s="60"/>
+      <c r="C164" s="60"/>
+      <c r="D164" s="60"/>
+      <c r="E164" s="61"/>
       <c r="F164" s="25"/>
-      <c r="G164" s="147" t="s">
+      <c r="G164" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H164" s="147"/>
-    </row>
-    <row r="165" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="144" t="s">
+      <c r="H164" s="62"/>
+    </row>
+    <row r="165" spans="1:8" ht="30" customHeight="1">
+      <c r="A165" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B165" s="145"/>
-      <c r="C165" s="145"/>
-      <c r="D165" s="145"/>
-      <c r="E165" s="146"/>
+      <c r="B165" s="60"/>
+      <c r="C165" s="60"/>
+      <c r="D165" s="60"/>
+      <c r="E165" s="61"/>
       <c r="F165" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G165" s="147" t="s">
+      <c r="G165" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H165" s="147"/>
-    </row>
-    <row r="166" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="144" t="s">
+      <c r="H165" s="62"/>
+    </row>
+    <row r="166" spans="1:8" ht="30" customHeight="1">
+      <c r="A166" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B166" s="145"/>
-      <c r="C166" s="145"/>
-      <c r="D166" s="145"/>
-      <c r="E166" s="146"/>
+      <c r="B166" s="60"/>
+      <c r="C166" s="60"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="61"/>
       <c r="F166" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G166" s="147" t="s">
+      <c r="G166" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H166" s="147"/>
-    </row>
-    <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="144" t="s">
+      <c r="H166" s="62"/>
+    </row>
+    <row r="167" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A167" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B167" s="145"/>
-      <c r="C167" s="145"/>
-      <c r="D167" s="145"/>
-      <c r="E167" s="146"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="60"/>
+      <c r="D167" s="60"/>
+      <c r="E167" s="61"/>
       <c r="F167" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G167" s="147" t="s">
+      <c r="G167" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H167" s="147"/>
-    </row>
-    <row r="168" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="144" t="s">
+      <c r="H167" s="62"/>
+    </row>
+    <row r="168" spans="1:8" ht="30" customHeight="1">
+      <c r="A168" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B168" s="145"/>
-      <c r="C168" s="145"/>
-      <c r="D168" s="145"/>
-      <c r="E168" s="146"/>
+      <c r="B168" s="60"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="60"/>
+      <c r="E168" s="61"/>
       <c r="F168" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G168" s="147" t="s">
+      <c r="G168" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H168" s="147"/>
-    </row>
-    <row r="169" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="144" t="s">
+      <c r="H168" s="62"/>
+    </row>
+    <row r="169" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A169" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B169" s="145"/>
-      <c r="C169" s="145"/>
-      <c r="D169" s="145"/>
-      <c r="E169" s="146"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="60"/>
+      <c r="E169" s="61"/>
       <c r="F169" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G169" s="147" t="s">
+      <c r="G169" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H169" s="147"/>
-    </row>
-    <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="151" t="s">
+      <c r="H169" s="62"/>
+    </row>
+    <row r="170" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A170" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="B170" s="152"/>
-      <c r="C170" s="152"/>
-      <c r="D170" s="152"/>
-      <c r="E170" s="153"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="68"/>
       <c r="F170" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G170" s="147" t="s">
+      <c r="G170" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H170" s="147"/>
-    </row>
-    <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="144" t="s">
+      <c r="H170" s="62"/>
+    </row>
+    <row r="171" spans="1:8" ht="30" customHeight="1">
+      <c r="A171" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B171" s="145"/>
-      <c r="C171" s="145"/>
-      <c r="D171" s="145"/>
-      <c r="E171" s="146"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="60"/>
+      <c r="D171" s="60"/>
+      <c r="E171" s="61"/>
       <c r="F171" s="25"/>
-      <c r="G171" s="147" t="s">
+      <c r="G171" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H171" s="147"/>
-    </row>
-    <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="144" t="s">
+      <c r="H171" s="62"/>
+    </row>
+    <row r="172" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A172" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B172" s="145"/>
-      <c r="C172" s="145"/>
-      <c r="D172" s="145"/>
-      <c r="E172" s="146"/>
+      <c r="B172" s="60"/>
+      <c r="C172" s="60"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="61"/>
       <c r="F172" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="G172" s="147" t="s">
+      <c r="G172" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H172" s="147"/>
-    </row>
-    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="144" t="s">
+      <c r="H172" s="62"/>
+    </row>
+    <row r="173" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A173" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="B173" s="145"/>
-      <c r="C173" s="145"/>
-      <c r="D173" s="145"/>
-      <c r="E173" s="146"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="60"/>
+      <c r="D173" s="60"/>
+      <c r="E173" s="61"/>
       <c r="F173" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="G173" s="147" t="s">
+      <c r="G173" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H173" s="147"/>
-    </row>
-    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="144" t="s">
+      <c r="H173" s="62"/>
+    </row>
+    <row r="174" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A174" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B174" s="145"/>
-      <c r="C174" s="145"/>
-      <c r="D174" s="145"/>
-      <c r="E174" s="146"/>
+      <c r="B174" s="60"/>
+      <c r="C174" s="60"/>
+      <c r="D174" s="60"/>
+      <c r="E174" s="61"/>
       <c r="F174" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="G174" s="147" t="s">
+      <c r="G174" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H174" s="147"/>
-    </row>
-    <row r="175" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="144" t="s">
+      <c r="H174" s="62"/>
+    </row>
+    <row r="175" spans="1:8" ht="38.1" customHeight="1">
+      <c r="A175" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B175" s="145"/>
-      <c r="C175" s="145"/>
-      <c r="D175" s="145"/>
-      <c r="E175" s="146"/>
+      <c r="B175" s="60"/>
+      <c r="C175" s="60"/>
+      <c r="D175" s="60"/>
+      <c r="E175" s="61"/>
       <c r="F175" s="25"/>
-      <c r="G175" s="147" t="s">
+      <c r="G175" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H175" s="147"/>
-    </row>
-    <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="144" t="s">
+      <c r="H175" s="62"/>
+    </row>
+    <row r="176" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A176" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="B176" s="145"/>
-      <c r="C176" s="145"/>
-      <c r="D176" s="145"/>
-      <c r="E176" s="146"/>
+      <c r="B176" s="60"/>
+      <c r="C176" s="60"/>
+      <c r="D176" s="60"/>
+      <c r="E176" s="61"/>
       <c r="F176" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G176" s="147" t="s">
+      <c r="G176" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H176" s="147"/>
-    </row>
-    <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="154" t="s">
+      <c r="H176" s="62"/>
+    </row>
+    <row r="177" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A177" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="B177" s="155"/>
-      <c r="C177" s="155"/>
-      <c r="D177" s="155"/>
-      <c r="E177" s="155"/>
-      <c r="F177" s="155"/>
-      <c r="G177" s="155"/>
-      <c r="H177" s="156"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B177" s="64"/>
+      <c r="C177" s="64"/>
+      <c r="D177" s="64"/>
+      <c r="E177" s="64"/>
+      <c r="F177" s="64"/>
+      <c r="G177" s="64"/>
+      <c r="H177" s="65"/>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="50"/>
       <c r="B178" s="50"/>
       <c r="C178" s="50"/>
@@ -5257,74 +5260,74 @@
       <c r="G178" s="50"/>
       <c r="H178" s="50"/>
     </row>
-    <row r="180" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" ht="17.25" thickBot="1">
       <c r="H180" s="57"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="69" t="s">
+    <row r="181" spans="1:8">
+      <c r="A181" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="B181" s="70"/>
-      <c r="C181" s="73" t="str">
+      <c r="B181" s="146"/>
+      <c r="C181" s="150" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D181" s="70"/>
-      <c r="E181" s="70"/>
-      <c r="F181" s="70"/>
-      <c r="G181" s="74"/>
-      <c r="H181" s="71"/>
-    </row>
-    <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="59" t="s">
+      <c r="D181" s="146"/>
+      <c r="E181" s="146"/>
+      <c r="F181" s="146"/>
+      <c r="G181" s="151"/>
+      <c r="H181" s="159"/>
+    </row>
+    <row r="182" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A182" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="B182" s="60"/>
-      <c r="C182" s="75" t="str">
+      <c r="B182" s="136"/>
+      <c r="C182" s="152" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D182" s="76"/>
-      <c r="E182" s="76"/>
-      <c r="F182" s="76"/>
-      <c r="G182" s="77"/>
-      <c r="H182" s="71"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="59" t="s">
+      <c r="D182" s="153"/>
+      <c r="E182" s="153"/>
+      <c r="F182" s="153"/>
+      <c r="G182" s="154"/>
+      <c r="H182" s="159"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="B183" s="60"/>
-      <c r="C183" s="78" t="str">
+      <c r="B183" s="136"/>
+      <c r="C183" s="155" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D183" s="60"/>
-      <c r="E183" s="60"/>
-      <c r="F183" s="60"/>
-      <c r="G183" s="79"/>
-      <c r="H183" s="71"/>
-    </row>
-    <row r="184" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="61" t="s">
+      <c r="D183" s="136"/>
+      <c r="E183" s="136"/>
+      <c r="F183" s="136"/>
+      <c r="G183" s="156"/>
+      <c r="H183" s="159"/>
+    </row>
+    <row r="184" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A184" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="B184" s="62"/>
-      <c r="C184" s="80" t="str">
+      <c r="B184" s="138"/>
+      <c r="C184" s="157" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D184" s="62"/>
-      <c r="E184" s="62"/>
-      <c r="F184" s="62"/>
-      <c r="G184" s="81"/>
-      <c r="H184" s="72"/>
-    </row>
-    <row r="185" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="63" t="s">
+      <c r="D184" s="138"/>
+      <c r="E184" s="138"/>
+      <c r="F184" s="138"/>
+      <c r="G184" s="158"/>
+      <c r="H184" s="160"/>
+    </row>
+    <row r="185" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A185" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="B185" s="64"/>
+      <c r="B185" s="140"/>
       <c r="C185" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5347,17 +5350,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="65"/>
-      <c r="B186" s="66"/>
-      <c r="C186" s="66"/>
-      <c r="D186" s="67"/>
-      <c r="E186" s="67"/>
-      <c r="F186" s="67"/>
-      <c r="G186" s="67"/>
-      <c r="H186" s="68"/>
-    </row>
-    <row r="187" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A186" s="141"/>
+      <c r="B186" s="142"/>
+      <c r="C186" s="142"/>
+      <c r="D186" s="143"/>
+      <c r="E186" s="143"/>
+      <c r="F186" s="143"/>
+      <c r="G186" s="143"/>
+      <c r="H186" s="144"/>
+    </row>
+    <row r="187" spans="1:8" ht="17.25" thickTop="1">
       <c r="A187" s="5"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -5367,7 +5370,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8">
       <c r="A188" s="8"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -5377,7 +5380,7 @@
       <c r="G188" s="9"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189" s="8"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -5387,7 +5390,7 @@
       <c r="G189" s="9"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="A190" s="8"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -5397,7 +5400,7 @@
       <c r="G190" s="9"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="A191" s="8"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -5407,7 +5410,7 @@
       <c r="G191" s="9"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="A192" s="8"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -5417,7 +5420,7 @@
       <c r="G192" s="9"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="A193" s="8"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -5427,7 +5430,7 @@
       <c r="G193" s="9"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="A194" s="8"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -5437,7 +5440,7 @@
       <c r="G194" s="9"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="A195" s="8"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -5447,7 +5450,7 @@
       <c r="G195" s="9"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196" s="8"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -5457,7 +5460,7 @@
       <c r="G196" s="9"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="A197" s="8"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -5467,7 +5470,7 @@
       <c r="G197" s="9"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198" s="11"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -5477,7 +5480,7 @@
       <c r="G198" s="13"/>
       <c r="H198" s="14"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8">
       <c r="A199" s="15"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -5487,7 +5490,7 @@
       <c r="G199" s="12"/>
       <c r="H199" s="14"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8">
       <c r="A200" s="15"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -5497,7 +5500,7 @@
       <c r="G200" s="12"/>
       <c r="H200" s="14"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="A201" s="15"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -5507,7 +5510,7 @@
       <c r="G201" s="12"/>
       <c r="H201" s="14"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="A202" s="15"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -5517,7 +5520,7 @@
       <c r="G202" s="12"/>
       <c r="H202" s="14"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="A203" s="15"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -5527,7 +5530,7 @@
       <c r="G203" s="12"/>
       <c r="H203" s="14"/>
     </row>
-    <row r="204" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="16"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -5537,7 +5540,7 @@
       <c r="G204" s="17"/>
       <c r="H204" s="19"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="A205" s="20"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -5547,74 +5550,74 @@
       <c r="G205" s="12"/>
       <c r="H205" s="21"/>
     </row>
-    <row r="207" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="H207" s="58"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="69" t="s">
+    <row r="208" spans="1:8">
+      <c r="A208" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="B208" s="70"/>
-      <c r="C208" s="73" t="str">
+      <c r="B208" s="146"/>
+      <c r="C208" s="150" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D208" s="70"/>
-      <c r="E208" s="70"/>
-      <c r="F208" s="70"/>
-      <c r="G208" s="74"/>
-      <c r="H208" s="82"/>
-    </row>
-    <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="59" t="s">
+      <c r="D208" s="146"/>
+      <c r="E208" s="146"/>
+      <c r="F208" s="146"/>
+      <c r="G208" s="151"/>
+      <c r="H208" s="147"/>
+    </row>
+    <row r="209" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A209" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="B209" s="60"/>
-      <c r="C209" s="75" t="str">
+      <c r="B209" s="136"/>
+      <c r="C209" s="152" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D209" s="76"/>
-      <c r="E209" s="76"/>
-      <c r="F209" s="76"/>
-      <c r="G209" s="77"/>
-      <c r="H209" s="83"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="59" t="s">
+      <c r="D209" s="153"/>
+      <c r="E209" s="153"/>
+      <c r="F209" s="153"/>
+      <c r="G209" s="154"/>
+      <c r="H209" s="148"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="B210" s="60"/>
-      <c r="C210" s="78" t="str">
+      <c r="B210" s="136"/>
+      <c r="C210" s="155" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D210" s="60"/>
-      <c r="E210" s="60"/>
-      <c r="F210" s="60"/>
-      <c r="G210" s="79"/>
-      <c r="H210" s="83"/>
-    </row>
-    <row r="211" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="61" t="s">
+      <c r="D210" s="136"/>
+      <c r="E210" s="136"/>
+      <c r="F210" s="136"/>
+      <c r="G210" s="156"/>
+      <c r="H210" s="148"/>
+    </row>
+    <row r="211" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A211" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="B211" s="62"/>
-      <c r="C211" s="80" t="str">
+      <c r="B211" s="138"/>
+      <c r="C211" s="157" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D211" s="62"/>
-      <c r="E211" s="62"/>
-      <c r="F211" s="62"/>
-      <c r="G211" s="81"/>
-      <c r="H211" s="84"/>
-    </row>
-    <row r="212" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="63" t="s">
+      <c r="D211" s="138"/>
+      <c r="E211" s="138"/>
+      <c r="F211" s="138"/>
+      <c r="G211" s="158"/>
+      <c r="H211" s="149"/>
+    </row>
+    <row r="212" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A212" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="B212" s="64"/>
+      <c r="B212" s="140"/>
       <c r="C212" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5637,17 +5640,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="65"/>
-      <c r="B213" s="66"/>
-      <c r="C213" s="66"/>
-      <c r="D213" s="67"/>
-      <c r="E213" s="67"/>
-      <c r="F213" s="67"/>
-      <c r="G213" s="67"/>
-      <c r="H213" s="68"/>
-    </row>
-    <row r="214" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A213" s="141"/>
+      <c r="B213" s="142"/>
+      <c r="C213" s="142"/>
+      <c r="D213" s="143"/>
+      <c r="E213" s="143"/>
+      <c r="F213" s="143"/>
+      <c r="G213" s="143"/>
+      <c r="H213" s="144"/>
+    </row>
+    <row r="214" spans="1:8" ht="17.25" thickTop="1">
       <c r="A214" s="5"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -5657,7 +5660,7 @@
       <c r="G214" s="6"/>
       <c r="H214" s="7"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="A215" s="8"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -5667,7 +5670,7 @@
       <c r="G215" s="9"/>
       <c r="H215" s="10"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216" s="8"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -5677,7 +5680,7 @@
       <c r="G216" s="9"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="A217" s="8"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -5687,7 +5690,7 @@
       <c r="G217" s="9"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="A218" s="8"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -5697,7 +5700,7 @@
       <c r="G218" s="9"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="A219" s="8"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -5707,7 +5710,7 @@
       <c r="G219" s="9"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220" s="8"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -5717,7 +5720,7 @@
       <c r="G220" s="9"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221" s="8"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -5727,7 +5730,7 @@
       <c r="G221" s="9"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8">
       <c r="A222" s="8"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -5737,7 +5740,7 @@
       <c r="G222" s="9"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223" s="8"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -5747,7 +5750,7 @@
       <c r="G223" s="9"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="A224" s="11"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -5757,7 +5760,7 @@
       <c r="G224" s="13"/>
       <c r="H224" s="14"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="A225" s="15"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -5767,7 +5770,7 @@
       <c r="G225" s="12"/>
       <c r="H225" s="14"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8">
       <c r="A226" s="15"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -5777,7 +5780,7 @@
       <c r="G226" s="12"/>
       <c r="H226" s="14"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="A227" s="15"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -5787,7 +5790,7 @@
       <c r="G227" s="12"/>
       <c r="H227" s="14"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="A228" s="15"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -5797,7 +5800,7 @@
       <c r="G228" s="12"/>
       <c r="H228" s="14"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8">
       <c r="A229" s="15"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -5807,7 +5810,7 @@
       <c r="G229" s="12"/>
       <c r="H229" s="14"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8">
       <c r="A230" s="15"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -5817,7 +5820,7 @@
       <c r="G230" s="12"/>
       <c r="H230" s="14"/>
     </row>
-    <row r="231" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="17.25" thickBot="1">
       <c r="A231" s="16"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -5827,7 +5830,7 @@
       <c r="G231" s="17"/>
       <c r="H231" s="19"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="A232" s="20"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -5839,112 +5842,124 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="A175:E175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="A177:H177"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="H139:H142"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C140:G140"/>
-    <mergeCell ref="C141:G141"/>
-    <mergeCell ref="C142:G142"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="C137:H138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="H181:H184"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="C184:G184"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:H213"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="H208:H211"/>
+    <mergeCell ref="C208:G208"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B21:H22"/>
+    <mergeCell ref="B23:H42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C56:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="H97:H100"/>
@@ -5968,124 +5983,112 @@
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A101:E101"/>
     <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C56:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B23:H42"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:H213"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="H208:H211"/>
-    <mergeCell ref="C208:G208"/>
-    <mergeCell ref="C209:G209"/>
-    <mergeCell ref="C210:G210"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="H181:H184"/>
-    <mergeCell ref="C181:G181"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C183:G183"/>
-    <mergeCell ref="C184:G184"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="H139:H142"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="C137:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="A177:H177"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="G174:H174"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
